--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBDD803-5F86-4E2D-ACCB-B5E3C229393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482FEC27-45B9-48C2-BEEB-596F924D68E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП3" sheetId="1" r:id="rId1"/>
+    <sheet name="КП4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="24">
   <si>
     <t>NetName = D:\git\AI-methods-and-systems\rez_dir\NN_L5_Best.hdf5</t>
   </si>
@@ -74,11 +86,38 @@
   <si>
     <t xml:space="preserve"> Files D:\git\AI-methods-and-systems\Valid\\ </t>
   </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>val_accuracy</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>neutrons</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,14 +147,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -126,6 +174,3000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA71-43B4-B613-2EEC2B2F8C30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП4!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП4!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.94122809171676602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94684213399999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94982457200000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95947366999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95245611699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95596492300000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.952631593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94754385900000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96228069100000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94912278699999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95912283700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA71-43B4-B613-2EEC2B2F8C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="875861567"/>
+        <c:axId val="875862047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="875861567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875862047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="875862047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875861567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0FE6-4F19-9FC4-E73C9FEC82F4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП4!$A$21:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП4!$B$21:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.98421055099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97771930699999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99192982900000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97684210500000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98105263700000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98771929700000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98771929700000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98403507499999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98052632799999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98473686000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97789472300000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98719298799999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96771931600000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98403507499999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98210525500000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98438596700000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96087718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FE6-4F19-9FC4-E73C9FEC82F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="875861567"/>
+        <c:axId val="875862047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="875861567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875862047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="875862047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875861567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП4!$A$46:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП4!$B$46:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.99052631899999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99245613799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55AF-45F7-9296-C4F24852710D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="875861567"/>
+        <c:axId val="875862047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="875861567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875862047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="875862047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875861567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Діаграма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FBDFC8-518B-06D0-FEBD-76539A2E9EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Діаграма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D819AE-D167-4EB8-9656-A5F33F101A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Діаграма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999FDC6E-4EC6-41E1-A420-D8D5BFC82671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,4 +3788,1719 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE644021-18BF-44A6-A44F-44F14A407C78}">
+  <dimension ref="A1:AH72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.94122809171676602</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.154888480901718</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.90466928482055597</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.25739407539367598</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(B2=$B$13,"best","")</f>
+        <v/>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.94684213399999995</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.14786486300000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.89980542699999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25901484499999999</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F21" si="0">IF(B3=$B$13,"best","")</f>
+        <v/>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>343</v>
+      </c>
+      <c r="T3">
+        <v>346</v>
+      </c>
+      <c r="U3">
+        <v>342</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>1662</v>
+      </c>
+      <c r="Z3">
+        <v>1030</v>
+      </c>
+      <c r="AA3">
+        <v>3008</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>342</v>
+      </c>
+      <c r="AF3">
+        <v>342</v>
+      </c>
+      <c r="AG3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.94982457200000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.142505884</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.92120623599999996</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.22483626000000001</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>323</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>1614</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>327</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.95947366999999995</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.112637319</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.89591437600000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.24620874200000001</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>304</v>
+      </c>
+      <c r="U5">
+        <v>28</v>
+      </c>
+      <c r="X5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>11</v>
+      </c>
+      <c r="Z5">
+        <v>967</v>
+      </c>
+      <c r="AA5">
+        <v>52</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>9</v>
+      </c>
+      <c r="AF5">
+        <v>315</v>
+      </c>
+      <c r="AG5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.95245611699999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.128341436</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.92217898399999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.21492220500000001</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>323</v>
+      </c>
+      <c r="X6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>94</v>
+      </c>
+      <c r="Z6">
+        <v>63</v>
+      </c>
+      <c r="AA6">
+        <v>2851</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6">
+        <v>19</v>
+      </c>
+      <c r="AF6">
+        <v>9</v>
+      </c>
+      <c r="AG6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.95596492300000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.116212919</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.92607003499999996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.18218383199999999</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="T7" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.952631593</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.126751691</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.91050583100000004</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.227869079</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="U8" s="1">
+        <v>8.09E-2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.94754385900000004</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.139122158</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.918287933</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.218140259</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2.92E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="X9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.91859999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.96228069100000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.112513654</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.91926068100000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.21014496699999999</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.94912278699999997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.124676131</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.92898833800000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.18141525999999999</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.9214</v>
+      </c>
+      <c r="X11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.93189999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.95912283700000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11068307600000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.91050583100000004</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.22751455000000001</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <f>MAX(B2:B12)</f>
+        <v>0.96228069100000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.98421055099999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.9475312E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.93579769099999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.18404774400000001</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(B21=$B$38,"best","")</f>
+        <v/>
+      </c>
+      <c r="R21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.97771930699999998</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.5256580999999994E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.93871593499999995</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.182705849</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22:F46" si="1">IF(B22=$B$38,"best","")</f>
+        <v/>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>343</v>
+      </c>
+      <c r="T22">
+        <v>346</v>
+      </c>
+      <c r="U22">
+        <v>342</v>
+      </c>
+      <c r="X22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1662</v>
+      </c>
+      <c r="Z22">
+        <v>1030</v>
+      </c>
+      <c r="AA22">
+        <v>3008</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22">
+        <v>342</v>
+      </c>
+      <c r="AF22">
+        <v>342</v>
+      </c>
+      <c r="AG22">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.99192982900000004</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.9793567999999999E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.93677043900000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.188601449</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>best</v>
+      </c>
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>316</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>22</v>
+      </c>
+      <c r="X23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>1582</v>
+      </c>
+      <c r="Z23">
+        <v>11</v>
+      </c>
+      <c r="AA23">
+        <v>69</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>325</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.97684210500000002</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.5436272000000002E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.93871593499999995</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.19797144799999999</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>302</v>
+      </c>
+      <c r="U24">
+        <v>42</v>
+      </c>
+      <c r="X24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>977</v>
+      </c>
+      <c r="AA24">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE24">
+        <v>6</v>
+      </c>
+      <c r="AF24">
+        <v>306</v>
+      </c>
+      <c r="AG24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.98105263700000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.6801788999999998E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.93579769099999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.18172901899999999</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>333</v>
+      </c>
+      <c r="X25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>20</v>
+      </c>
+      <c r="Z25">
+        <v>9</v>
+      </c>
+      <c r="AA25">
+        <v>2979</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.98771929700000005</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.9281311999999999E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.94163423800000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.18017660099999999</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R26" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="X26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.98771929700000005</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4.1081943000000003E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.92996108499999997</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.213463604</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="X27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>8.77E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.98403507499999998</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.6084866000000002E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.92704278200000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.22812727099999999</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R28" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="T28" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="X28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.97670000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.98052632799999995</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5.1917061E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.92607003499999996</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.20901551800000001</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.98473686000000005</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.9676484999999999E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.93190664099999998</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.19932383300000001</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.9224</v>
+      </c>
+      <c r="X30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.94069999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.97789472300000002</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6.5903582000000002E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.93871593499999995</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.17446729499999999</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.98719298799999999</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.4269665999999999E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.93287938800000003</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.20329560299999999</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.96771931600000005</v>
+      </c>
+      <c r="C33" s="2">
+        <v>9.3325421000000006E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.93968874199999997</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.15903653200000001</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.98403507499999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.8058461000000001E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.93968874199999997</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.18372239200000001</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.98210525500000001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5.3336388999999998E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.94455254099999997</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.15168227300000001</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.98438596700000003</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4.6302635000000002E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.93871593499999995</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.18285021200000001</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.96087718</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9.3441613000000007E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.94649803600000004</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.15285907700000001</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2">
+        <f>MAX(B21:B37)</f>
+        <v>0.99192982900000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>0.99052631899999999</v>
+      </c>
+      <c r="C46">
+        <v>3.1782836000000002E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.94649803600000004</v>
+      </c>
+      <c r="E46">
+        <v>0.244333521</v>
+      </c>
+      <c r="F46" t="str">
+        <f>IF(B46=$B$72,"best","")</f>
+        <v/>
+      </c>
+      <c r="R46" t="s">
+        <v>2</v>
+      </c>
+      <c r="S46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>0.99245613799999999</v>
+      </c>
+      <c r="C47">
+        <v>2.3896765E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.92023348800000004</v>
+      </c>
+      <c r="E47">
+        <v>0.25158566199999999</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ref="F47:F71" si="2">IF(B47=$B$72,"best","")</f>
+        <v>best</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47">
+        <v>343</v>
+      </c>
+      <c r="T47">
+        <v>346</v>
+      </c>
+      <c r="U47">
+        <v>342</v>
+      </c>
+      <c r="X47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>1662</v>
+      </c>
+      <c r="Z47">
+        <v>1030</v>
+      </c>
+      <c r="AA47">
+        <v>3008</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE47">
+        <v>342</v>
+      </c>
+      <c r="AF47">
+        <v>342</v>
+      </c>
+      <c r="AG47">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>29</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>31</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>33</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>34</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>36</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>37</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>38</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>39</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>40</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>41</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>42</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>43</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>44</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72">
+        <f>MAX(B46:B71)</f>
+        <v>0.99245613799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(F1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482FEC27-45B9-48C2-BEEB-596F924D68E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DD06A-A54D-41E6-8B6F-8DBE3EFF56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -150,7 +150,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1177,13 +1177,40 @@
             <c:numRef>
               <c:f>КП4!$B$46:$B$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.99052631899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99245613799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.988245606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99736839499999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99508774300000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97052633799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99824559700000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98771929700000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93421053899999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99877190599999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99333333999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1319,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3794,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE644021-18BF-44A6-A44F-44F14A407C78}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3939,7 @@
         <v>0.25901484499999999</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F21" si="0">IF(B3=$B$13,"best","")</f>
+        <f t="shared" ref="F3:F12" si="0">IF(B3=$B$13,"best","")</f>
         <v/>
       </c>
       <c r="R3" t="s">
@@ -4515,7 +4542,7 @@
         <v>0.182705849</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:F46" si="1">IF(B22=$B$38,"best","")</f>
+        <f t="shared" ref="F22:F37" si="1">IF(B22=$B$38,"best","")</f>
         <v/>
       </c>
       <c r="R22" t="s">
@@ -5155,16 +5182,16 @@
       <c r="A46">
         <v>19</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.99052631899999999</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>3.1782836000000002E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>0.94649803600000004</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>0.244333521</v>
       </c>
       <c r="F46" t="str">
@@ -5215,21 +5242,21 @@
       <c r="A47">
         <v>20</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>0.99245613799999999</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>2.3896765E-2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>0.92023348800000004</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>0.25158566199999999</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" ref="F47:F71" si="2">IF(B47=$B$72,"best","")</f>
-        <v>best</v>
+        <v/>
       </c>
       <c r="R47" t="s">
         <v>6</v>
@@ -5272,6 +5299,18 @@
       <c r="A48">
         <v>21</v>
       </c>
+      <c r="B48" s="2">
+        <v>0.988245606</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.1412371000000001E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.94163423800000001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.195061386</v>
+      </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5281,6 +5320,18 @@
       <c r="A49">
         <v>22</v>
       </c>
+      <c r="B49" s="2">
+        <v>0.99736839499999996</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.0484237E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.94260698600000004</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.22379159900000001</v>
+      </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5290,6 +5341,18 @@
       <c r="A50">
         <v>23</v>
       </c>
+      <c r="B50" s="2">
+        <v>0.99508774300000002</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1.7625999E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.94260698600000004</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.19723510699999999</v>
+      </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5299,6 +5362,18 @@
       <c r="A51">
         <v>24</v>
       </c>
+      <c r="B51" s="2">
+        <v>0.97052633799999999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.9449721000000001E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.93093383299999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.221325204</v>
+      </c>
       <c r="F51" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5308,6 +5383,18 @@
       <c r="A52">
         <v>25</v>
       </c>
+      <c r="B52" s="2">
+        <v>0.99824559700000004</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.2656517000000001E-2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.94163423800000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.18732768299999999</v>
+      </c>
       <c r="F52" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5317,6 +5404,18 @@
       <c r="A53">
         <v>26</v>
       </c>
+      <c r="B53" s="2">
+        <v>0.98771929700000005</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3.6376681000000001E-2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.94455254099999997</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.16938984400000001</v>
+      </c>
       <c r="F53" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5326,6 +5425,18 @@
       <c r="A54">
         <v>27</v>
       </c>
+      <c r="B54" s="2">
+        <v>0.93421053899999995</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.20127135500000001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.92996108499999997</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.20983761500000001</v>
+      </c>
       <c r="F54" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5335,15 +5446,39 @@
       <c r="A55">
         <v>28</v>
       </c>
+      <c r="B55" s="2">
+        <v>0.99877190599999999</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.0722873000000001E-2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.94747084400000003</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.18867541800000001</v>
+      </c>
       <c r="F55" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>best</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>29</v>
       </c>
+      <c r="B56" s="2">
+        <v>0.99333333999999995</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.7996854999999999E-2</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.93190664099999998</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.25506904699999999</v>
+      </c>
       <c r="F56" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5353,6 +5488,10 @@
       <c r="A57">
         <v>30</v>
       </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5362,6 +5501,10 @@
       <c r="A58">
         <v>31</v>
       </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5371,6 +5514,10 @@
       <c r="A59">
         <v>32</v>
       </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5380,6 +5527,10 @@
       <c r="A60">
         <v>33</v>
       </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
       <c r="F60" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5389,6 +5540,10 @@
       <c r="A61">
         <v>34</v>
       </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
       <c r="F61" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5398,6 +5553,10 @@
       <c r="A62">
         <v>35</v>
       </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
       <c r="F62" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5407,6 +5566,10 @@
       <c r="A63">
         <v>36</v>
       </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
       <c r="F63" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5416,6 +5579,10 @@
       <c r="A64">
         <v>37</v>
       </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
       <c r="F64" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5425,6 +5592,10 @@
       <c r="A65">
         <v>38</v>
       </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
       <c r="F65" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5434,6 +5605,10 @@
       <c r="A66">
         <v>39</v>
       </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5443,6 +5618,10 @@
       <c r="A67">
         <v>40</v>
       </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="F67" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5452,6 +5631,10 @@
       <c r="A68">
         <v>41</v>
       </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5461,6 +5644,10 @@
       <c r="A69">
         <v>42</v>
       </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5470,6 +5657,10 @@
       <c r="A70">
         <v>43</v>
       </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5479,6 +5670,10 @@
       <c r="A71">
         <v>44</v>
       </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5490,7 +5685,7 @@
       </c>
       <c r="B72">
         <f>MAX(B46:B71)</f>
-        <v>0.99245613799999999</v>
+        <v>0.99877190599999999</v>
       </c>
     </row>
   </sheetData>

--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DD06A-A54D-41E6-8B6F-8DBE3EFF56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372250F-D6B8-41FD-811F-CD781AF53A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="24">
   <si>
     <t>NetName = D:\git\AI-methods-and-systems\rez_dir\NN_L5_Best.hdf5</t>
   </si>
@@ -1086,6 +1086,30 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-87A1-450D-B0A2-BAC1D0701F9A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>КП4!$A$46:$A$71</c:f>
@@ -1211,6 +1235,51 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.99333333999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99596488500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.989298224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98877191499999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99894738199999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99684208600000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99982458399999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97859650899999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98982453299999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.994561374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98122805400000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98947370099999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97894734100000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97947371000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98684209599999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97754383099999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE644021-18BF-44A6-A44F-44F14A407C78}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,8 +5384,44 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>322</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>20</v>
+      </c>
+      <c r="X48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y48">
+        <v>1640</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE48">
+        <v>325</v>
+      </c>
+      <c r="AF48">
+        <v>2</v>
+      </c>
+      <c r="AG48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22</v>
       </c>
@@ -5336,8 +5441,44 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>313</v>
+      </c>
+      <c r="U49">
+        <v>24</v>
+      </c>
+      <c r="X49" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1011</v>
+      </c>
+      <c r="AA49">
+        <v>19</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49">
+        <v>7</v>
+      </c>
+      <c r="AF49">
+        <v>314</v>
+      </c>
+      <c r="AG49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>23</v>
       </c>
@@ -5357,8 +5498,44 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>6</v>
+      </c>
+      <c r="U50">
+        <v>331</v>
+      </c>
+      <c r="X50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y50">
+        <v>5</v>
+      </c>
+      <c r="Z50">
+        <v>16</v>
+      </c>
+      <c r="AA50">
+        <v>2987</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>6</v>
+      </c>
+      <c r="AF50">
+        <v>7</v>
+      </c>
+      <c r="AG50">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24</v>
       </c>
@@ -5378,8 +5555,44 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>10</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="T51" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="U51" s="1">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="X51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -5399,8 +5612,44 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>11</v>
+      </c>
+      <c r="S52" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="U52" s="1">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="X52" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
@@ -5420,8 +5669,44 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>12</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="X53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>27</v>
       </c>
@@ -5442,7 +5727,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>28</v>
       </c>
@@ -5460,10 +5745,28 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="2"/>
-        <v>best</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="R55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="X55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0.94359999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>29</v>
       </c>
@@ -5484,105 +5787,169 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>30</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" s="2">
+        <v>0.99596488500000002</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.6464245999999998E-2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.93774318700000003</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.18541307700000001</v>
+      </c>
       <c r="F57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>31</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="B58" s="2">
+        <v>0.989298224</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3.2778841000000003E-2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.91634243699999995</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.27885457899999999</v>
+      </c>
       <c r="F58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>32</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="B59" s="2">
+        <v>0.98877191499999995</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.0442477999999999E-2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.92704278200000001</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.25591096299999999</v>
+      </c>
       <c r="F59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>33</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="B60" s="2">
+        <v>0.99894738199999999</v>
+      </c>
+      <c r="C60" s="2">
+        <v>8.3161829999999996E-3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.93677043900000001</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.27585849200000001</v>
+      </c>
       <c r="F60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>34</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="B61" s="2">
+        <v>0.99684208600000002</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1.0358216999999999E-2</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.93968874199999997</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.21648958300000001</v>
+      </c>
       <c r="F61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>35</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="B62" s="2">
+        <v>0.99982458399999996</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5.9248599999999997E-3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.94066148999999999</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.19502292600000001</v>
+      </c>
       <c r="F62" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>best</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>36</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="B63" s="2">
+        <v>0.97859650899999995</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5.8766591999999999E-2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.92217898399999998</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.284414589</v>
+      </c>
       <c r="F63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>37</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="B64" s="2">
+        <v>0.98982453299999995</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.8606031000000001E-2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.93968874199999997</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.21962896000000001</v>
+      </c>
       <c r="F64" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5592,10 +5959,18 @@
       <c r="A65">
         <v>38</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="B65" s="2">
+        <v>0.994561374</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.8706275000000001E-2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.90856033599999997</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.32116848199999998</v>
+      </c>
       <c r="F65" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5605,10 +5980,18 @@
       <c r="A66">
         <v>39</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="B66" s="2">
+        <v>0.98122805400000002</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5.6625905999999997E-2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.93287938800000003</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.26183450200000002</v>
+      </c>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5618,10 +6001,18 @@
       <c r="A67">
         <v>40</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="B67" s="2">
+        <v>0.98947370099999998</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2.9656637E-2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.92120623599999996</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.25544634500000002</v>
+      </c>
       <c r="F67" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5631,10 +6022,18 @@
       <c r="A68">
         <v>41</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="B68" s="2">
+        <v>0.97894734100000003</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5.7004999000000001E-2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.91731518499999998</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.374554306</v>
+      </c>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5644,10 +6043,18 @@
       <c r="A69">
         <v>42</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="B69" s="2">
+        <v>0.97947371000000005</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5.7063948000000003E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.93774318700000003</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.20330031200000001</v>
+      </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5657,10 +6064,18 @@
       <c r="A70">
         <v>43</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="B70" s="2">
+        <v>0.98684209599999995</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3.8117155E-2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.93385213600000005</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.23725733199999999</v>
+      </c>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5670,10 +6085,18 @@
       <c r="A71">
         <v>44</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="B71" s="2">
+        <v>0.97754383099999997</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5.3931451999999998E-2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.93385213600000005</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.239150956</v>
+      </c>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5685,7 +6108,7 @@
       </c>
       <c r="B72">
         <f>MAX(B46:B71)</f>
-        <v>0.99877190599999999</v>
+        <v>0.99982458399999996</v>
       </c>
     </row>
   </sheetData>

--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372250F-D6B8-41FD-811F-CD781AF53A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01C11B-DBD1-4B13-98B2-B0DC9CC68245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП3" sheetId="1" r:id="rId1"/>
     <sheet name="КП4" sheetId="2" r:id="rId2"/>
+    <sheet name="КП5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="26">
   <si>
     <t>NetName = D:\git\AI-methods-and-systems\rez_dir\NN_L5_Best.hdf5</t>
   </si>
@@ -110,6 +111,12 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>Після цього значення val_loss починає рости, тому обираємо Epochs = 25 як найкращий</t>
+  </si>
 </sst>
 </file>
 
@@ -127,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,15 +160,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1481,6 +1515,2851 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП5!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП5!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.69719296693801802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78245615959167403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89508771896362305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92473685741424505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93754386901855402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95228070020675604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96473681926727295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95842105150222701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.964385986328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97877192497253396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98245614767074496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99000000953674305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99368423223495395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.996315777301788</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99140352010726895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99508774280548096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99491226673126198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99157893657684304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99561405181884699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99157893657684304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99192982912063599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99877190589904696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99578946828842096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98894739151000899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.997017562389373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99771928787231401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99894738197326605</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99929827451705899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99929827451705899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99947369098663297</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99964910745620705</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99947369098663297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.986666679382324</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97210526466369596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98982453346252397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.993333339691162</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99789476394653298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99947369098663297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99982458353042603</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89ED-40B7-B7DC-05A1F9DAED7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП5!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП5!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.66388553380966098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39757084846496499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29037144780158902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21387992799281999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17251425981521601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13544726371765101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.100270152091979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11027061939239501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8939917981624603E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3260667026042897E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9864497035741799E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2924704253673498E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1230602636933299E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5233219601213901E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5070471689104999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9970465451478899E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.76591798663139E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6001553982496199E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4313200488686499E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3323591798543899E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5155533105134902E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5194683372974396E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3510904274880799E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.49532663822174E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0959699749946501E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2493376210331899E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3005292061716301E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.38688965328037E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.38879509177058E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0046571260318099E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5099996067583496E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1248190943151702E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1415189672261401E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.77439670450985E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0852074744179801E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.72715381672605E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4607210545800599E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4308412820100701E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.3656981587409904E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0633101239800401E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8431445583701099E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.4421653300523706E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1740081720054102E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.05014420114457E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.6788727417588201E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7721978626213897E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2852686601690899E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.67802393157035E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5076355561613999E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.32075462210923E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1116220634430598E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.9487579013220901E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7679116465151299E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7127366047352498E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4954610853455901E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3079956008587E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.25973548367619E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1752739849034599E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1383466082624999E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.00809095986187E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8779946549329901E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8357437511440299E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6993794997688299E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.70419283676892E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5578563034068701E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5344088023994099E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3774479157291301E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2875958054792101E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3127256534062299E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.85074532055296E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1278726742602799E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.7571697551757097E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.5599560406990295E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.7138152846600806E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9063346018083394E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.4003637311980101E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.2312825068365701E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.6563349062343998E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.36715999967418E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.12887675338424E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.5980821849079803E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0520463042193997E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.04823224723804E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.87473758362466E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5814615582930801E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.3425007384503199E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.12997183552943E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0213692550896599E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1587953597190698E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7229376680916101E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5658697520848299E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5698213246650899E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4177088814903901E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.48887511386419E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.32948134705657E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.22999663290102E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.19101860036607E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.540212360851E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.19011510832933E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.12668803922133E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89ED-40B7-B7DC-05A1F9DAED7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП5!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП5!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.62937742471694902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85214006900787298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90175098180770796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87937742471694902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87159532308578402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89299613237380904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91731518507003695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92704278230667103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92315173149108798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92801558971404996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90953308343887296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93093383312225297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93774318695068304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91731518507003695</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93579769134521396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90758752822875899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92801558971404996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92315173149108798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93093383312225297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.910505831241607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93385213613510099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93482488393783503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93093383312225297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.928988337516784</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93287938833236606</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93871593475341797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93287938833236606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94455254077911299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93871593475341797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94260698556900002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94163423776626498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94357979297637895</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94163423776626498</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94552528858184803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94455254077911299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94455254077911299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93968874216079701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88715952634811401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91147857904434204</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93774318695068304</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93482488393783503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94163423776626498</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95233464241027799</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95038908720016402</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95038908720016402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95136189460754395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95136189460754395</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95233464241027799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95038908720016402</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.95136189460754395</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95233464241027799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95136189460754395</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.94552528858184803</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.94649803638458196</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.94649803638458196</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.94552528858184803</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95038908720016402</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.94649803638458196</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95038908720016402</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.95038908720016402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94844359159469604</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.94649803638458196</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94649803638458196</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.94552528858184803</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.947470843791961</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.94941633939742998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-89ED-40B7-B7DC-05A1F9DAED7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КП5!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КП5!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.81954610347747803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58643668889999301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39232969284057601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34127280116081199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31866788864135698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.258992940187454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.215465873479843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20023864507675099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25055548548698398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23159405589103699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.282427698373794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.208540484309196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22846239805221499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29092752933502197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25358781218528698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34286847710609403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28845801949500999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.312717884778976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31875517964363098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43413954973220797</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26662886142730702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31541767716407698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38658303022384599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33572885394096302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35977029800415</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25669094920158297</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36829364299774098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27205210924148499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30760920047759999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30683675408363298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31265854835510198</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31090843677520702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.315676540136337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31069803237915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31799921393394398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31426569819450301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33111876249313299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77400463819503695</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39554607868194502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27671304345130898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30280196666717502</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26900663971900901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.25571975111961298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2696353495121</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28437060117721502</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.29117918014526301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.29350712895393299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.29586073756217901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29858031868934598</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.301803648471832</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.30275174975395203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.304077267646789</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.30680799484252902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.31004542112350397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.31068715453147799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.31387564539909302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31557792425155601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.31817850470542902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.31867513060569702</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.32012757658958402</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.32286524772643999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.32224568724632202</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.329053044319152</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.32661503553390497</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.331826031208038</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32615166902542098</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.333579272031784</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33525419235229398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33804702758789001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.35291111469268799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35292363166808999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35719388723373402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35749730467796298</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.362793087959289</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.368818879127502</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.36086815595626798</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36093193292617798</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.36534431576728799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.36950796842575001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.36801308393478299</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.370748370885849</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.374008119106292</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.37185713648795998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.37649151682853699</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.37811732292175199</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38019970059394798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.38308385014533902</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38599297404289201</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.38962808251380898</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.39246535301208402</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.39867785573005599</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.39950668811798001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.39915701746940602</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.399930208921432</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.40139970183372498</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.40372169017791698</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.40369561314582803</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.41859516501426602</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.41315296292304898</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.40580558776855402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-89ED-40B7-B7DC-05A1F9DAED7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1991391296"/>
+        <c:axId val="1991398016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1991391296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1991398016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1991398016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1991391296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1601,6 +4480,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2634,6 +5553,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3258,6 +6693,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Діаграма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEB73EB-9DEE-A2B8-14C8-DA930CA07FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3890,7 +7366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE644021-18BF-44A6-A44F-44F14A407C78}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
@@ -6121,4 +9597,1755 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F35E-88F3-4455-8CFA-3699849210C8}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.69719296693801802</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.66388553380966098</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.62937742471694902</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.81954610347747803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.78245615959167403</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.39757084846496499</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.85214006900787298</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.58643668889999301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.89508771896362305</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.29037144780158902</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.90175098180770796</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.39232969284057601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.92473685741424505</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.21387992799281999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.87937742471694902</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.34127280116081199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.93754386901855402</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17251425981521601</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.87159532308578402</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.31866788864135698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.95228070020675604</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.13544726371765101</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.89299613237380904</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.258992940187454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.96473681926727295</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.100270152091979</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.91731518507003695</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.215465873479843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.95842105150222701</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.11027061939239501</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.92704278230667103</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.20023864507675099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.964385986328125</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.8939917981624603E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.92315173149108798</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.25055548548698398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.97877192497253396</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.3260667026042897E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.92801558971404996</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.23159405589103699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.98245614767074496</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.9864497035741799E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.90953308343887296</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.282427698373794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.99000000953674305</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.2924704253673498E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.93093383312225297</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.208540484309196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.99368423223495395</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.1230602636933299E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.93774318695068304</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.22846239805221499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.996315777301788</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.5233219601213901E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.91731518507003695</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.29092752933502197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.99140352010726895</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.5070471689104999E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.93579769134521396</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.25358781218528698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.99508774280548096</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.9970465451478899E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.90758752822875899</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.34286847710609403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.99491226673126198</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.76591798663139E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.92801558971404996</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.28845801949500999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.99157893657684304</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.6001553982496199E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.92315173149108798</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.312717884778976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.99561405181884699</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.4313200488686499E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.93093383312225297</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.31875517964363098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.99157893657684304</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.3323591798543899E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.910505831241607</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.43413954973220797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.99192982912063599</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.5155533105134902E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.93385213613510099</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.26662886142730702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.99877190589904696</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.5194683372974396E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.93482488393783503</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.31541767716407698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.99578946828842096</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.3510904274880799E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.93093383312225297</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.38658303022384599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.98894739151000899</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.49532663822174E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.928988337516784</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.33572885394096302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.997017562389373</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.0959699749946501E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.93287938833236606</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.35977029800415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.99771928787231401</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7.2493376210331899E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.93871593475341797</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.25669094920158297</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.99894738197326605</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.3005292061716301E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.93287938833236606</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.36829364299774098</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.99929827451705899</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.38688965328037E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.94455254077911299</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.27205210924148499</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.99929827451705899</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.38879509177058E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.93871593475341797</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.30760920047759999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.99947369098663297</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.0046571260318099E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.94260698556900002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.30683675408363298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.99964910745620705</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.5099996067583496E-4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.94163423776626498</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.31265854835510198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7.1248190943151702E-4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.94357979297637895</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.31090843677520702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.99947369098663297</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.1415189672261401E-4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.94163423776626498</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.315676540136337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5.77439670450985E-4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.94552528858184803</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.31069803237915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4.0852074744179801E-4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.94455254077911299</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.31799921393394398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.72715381672605E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.94455254077911299</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.31426569819450301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.4607210545800599E-4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.93968874216079701</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.33111876249313299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.986666679382324</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.4308412820100701E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.88715952634811401</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.77400463819503695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.97210526466369596</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8.3656981587409904E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.91147857904434204</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.39554607868194502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.98982453346252397</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.0633101239800401E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.93774318695068304</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.27671304345130898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.993333339691162</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.8431445583701099E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.93482488393783503</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.30280196666717502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.99789476394653298</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8.4421653300523706E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.94163423776626498</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.26900663971900901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.99947369098663297</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.1740081720054102E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.95233464241027799</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.25571975111961298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.05014420114457E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.2696353495121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.99982458353042603</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.6788727417588201E-4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.28437060117721502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4.7721978626213897E-4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.29117918014526301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4.2852686601690899E-4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.29350712895393299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.67802393157035E-4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.29586073756217901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3.5076355561613999E-4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.29858031868934598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.32075462210923E-4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.301803648471832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.1116220634430598E-4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.30275174975395203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2.9487579013220901E-4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.95038908720016402</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.304077267646789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2.7679116465151299E-4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.95038908720016402</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.30680799484252902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.7127366047352498E-4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.95136189460754395</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.31004542112350397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2.4954610853455901E-4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.31068715453147799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2.3079956008587E-4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.95136189460754395</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.31387564539909302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2.25973548367619E-4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.95233464241027799</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.31557792425155601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2.1752739849034599E-4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.95038908720016402</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.31817850470542902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2.1383466082624999E-4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.95136189460754395</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.31867513060569702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2.00809095986187E-4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.95233464241027799</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.32012757658958402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1.8779946549329901E-4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.95136189460754395</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.32286524772643999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.8357437511440299E-4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.32224568724632202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.6993794997688299E-4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.329053044319152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.70419283676892E-4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.32661503553390497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1.5578563034068701E-4</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.331826031208038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.5344088023994099E-4</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.32615166902542098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.3774479157291301E-4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.94552528858184803</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.333579272031784</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.2875958054792101E-4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.33525419235229398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.3127256534062299E-4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.94649803638458196</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.33804702758789001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.85074532055296E-4</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.35291111469268799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.1278726742602799E-4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.35292363166808999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>9.7571697551757097E-5</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.94649803638458196</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.35719388723373402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>8.5599560406990295E-5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.35749730467796298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>7.7138152846600806E-5</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.362793087959289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6.9063346018083394E-5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.94552528858184803</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.368818879127502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>8.4003637311980101E-5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.36086815595626798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>7.2312825068365701E-5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.36093193292617798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5.6563349062343998E-5</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.95038908720016402</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.36534431576728799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4.36715999967418E-5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.36950796842575001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4.12887675338424E-5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.94649803638458196</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.36801308393478299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3.5980821849079803E-5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.370748370885849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3.0520463042193997E-5</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.374008119106292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3.04823224723804E-5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.37185713648795998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2.87473758362466E-5</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.37649151682853699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2.5814615582930801E-5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.37811732292175199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2.3425007384503199E-5</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.95038908720016402</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.38019970059394798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2.12997183552943E-5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.95038908720016402</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.38308385014533902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2.0213692550896599E-5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.38599297404289201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2.1587953597190698E-5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.38962808251380898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.7229376680916101E-5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.94844359159469604</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.39246535301208402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1.5658697520848299E-5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.39867785573005599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1.5698213246650899E-5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.94649803638458196</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.39950668811798001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.4177088814903901E-5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.39915701746940602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1.48887511386419E-5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.399930208921432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1.32948134705657E-5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.40139970183372498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1.22999663290102E-5</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.94649803638458196</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.40372169017791698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1.19101860036607E-5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.40369561314582803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.540212360851E-5</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.94552528858184803</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.41859516501426602</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1.19011510832933E-5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.947470843791961</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.41315296292304898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1.12668803922133E-5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.94941633939742998</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.40580558776855402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F27:I29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01C11B-DBD1-4B13-98B2-B0DC9CC68245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62521D62-95B5-4DD3-91E8-0D819D581B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="31">
   <si>
     <t>NetName = D:\git\AI-methods-and-systems\rez_dir\NN_L5_Best.hdf5</t>
   </si>
@@ -117,6 +117,21 @@
   <si>
     <t>Після цього значення val_loss починає рости, тому обираємо Epochs = 25 як найкращий</t>
   </si>
+  <si>
+    <t>first_filters_count</t>
+  </si>
+  <si>
+    <t>test_accuracy</t>
+  </si>
+  <si>
+    <t>train_accuracy</t>
+  </si>
+  <si>
+    <t>valid_accuracy</t>
+  </si>
+  <si>
+    <t>avg_accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,33 +171,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4219,6 +4319,8 @@
         <c:axId val="1991398016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4276,6 +4378,618 @@
         <c:crossAx val="1991391296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>КП5!$AB$2:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AC$2:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92730000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3190-4A13-9209-6B45F59CD698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>КП5!$AB$2:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AD$2:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98560000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3190-4A13-9209-6B45F59CD698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>КП5!$AB$2:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AE$2:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.94650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95430000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95530000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93189999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3190-4A13-9209-6B45F59CD698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1184197792"/>
+        <c:axId val="1184200672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1184197792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184200672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184200672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.91"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184197792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4481,6 +5195,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6584,6 +7338,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6706,15 +7976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6734,6 +8004,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Діаграма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5A39E1-FEAF-8388-4478-1D03504EA8EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7366,8 +8672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE644021-18BF-44A6-A44F-44F14A407C78}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9589,7 +10895,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9601,1749 +10907,4271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F35E-88F3-4455-8CFA-3699849210C8}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>0.69719296693801802</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>0.66388553380966098</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>0.62937742471694902</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>0.81954610347747803</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="8">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="19">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AD2" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="AE2" s="19">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="AF2" s="19">
+        <f>AVERAGE(AC2:AE2)</f>
+        <v>0.96016666666666672</v>
+      </c>
+      <c r="AG2" s="8" t="str">
+        <f>IF(AF2=$AF$14,"best","")</f>
+        <v/>
+      </c>
+      <c r="AH2" s="9"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.78245615959167403</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0.39757084846496499</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0.85214006900787298</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>0.58643668889999301</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="8">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="AF3" s="19">
+        <f t="shared" ref="AF3:AF13" si="0">AVERAGE(AC3:AE3)</f>
+        <v>0.96083333333333343</v>
+      </c>
+      <c r="AG3" s="8" t="str">
+        <f t="shared" ref="AG3:AG13" si="1">IF(AF3=$AF$14,"best","")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="9"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>0.89508771896362305</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>0.29037144780158902</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>0.90175098180770796</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>0.39232969284057601</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="8">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="AF4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96343333333333325</v>
+      </c>
+      <c r="AG4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>best</v>
+      </c>
+      <c r="AH4" s="9"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>0.92473685741424505</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>0.21387992799281999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>0.87937742471694902</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>0.34127280116081199</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="8">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AE5" s="19">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="AF5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9630333333333333</v>
+      </c>
+      <c r="AG5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH5" s="9"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>0.93754386901855402</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>0.17251425981521601</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>0.87159532308578402</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>0.31866788864135698</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="8">
+        <v>80</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="AF6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9615999999999999</v>
+      </c>
+      <c r="AG6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>0.95228070020675604</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>0.13544726371765101</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>0.89299613237380904</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>0.258992940187454</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="8">
+        <v>96</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="19">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="AF7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96310000000000018</v>
+      </c>
+      <c r="AG7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>0.96473681926727295</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>0.100270152091979</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>0.91731518507003695</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>0.215465873479843</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="8">
+        <v>112</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AF8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96256666666666657</v>
+      </c>
+      <c r="AG8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH8" s="9"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>0.95842105150222701</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>0.11027061939239501</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>0.92704278230667103</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>0.20023864507675099</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="8">
+        <v>128</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="AF9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96083333333333343</v>
+      </c>
+      <c r="AG9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>0.964385986328125</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>9.8939917981624603E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>0.92315173149108798</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>0.25055548548698398</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="8">
+        <v>196</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="AF10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96266666666666667</v>
+      </c>
+      <c r="AG10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH10" s="9"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>0.97877192497253396</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>6.3260667026042897E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>0.92801558971404996</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <v>0.23159405589103699</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="8">
+        <v>256</v>
+      </c>
+      <c r="AC11" s="19">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="19">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AF11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96083333333333343</v>
+      </c>
+      <c r="AG11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH11" s="9"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>0.98245614767074496</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>4.9864497035741799E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>0.90953308343887296</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>0.282427698373794</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="8">
+        <v>512</v>
+      </c>
+      <c r="AC12" s="19">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="AE12" s="19">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="AF12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.95773333333333344</v>
+      </c>
+      <c r="AG12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH12" s="9"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <v>0.99000000953674305</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>3.2924704253673498E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>0.93093383312225297</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>0.208540484309196</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="8">
+        <v>1024</v>
+      </c>
+      <c r="AC13" s="19">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="AD13" s="19">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="AF13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9482666666666667</v>
+      </c>
+      <c r="AG13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH13" s="9"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <v>0.99368423223495395</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>2.1230602636933299E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>0.93774318695068304</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>0.22846239805221499</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="19">
+        <f>MAX(AF2:AF13)</f>
+        <v>0.96343333333333325</v>
+      </c>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="9"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="7">
         <v>0.996315777301788</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>1.5233219601213901E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>0.91731518507003695</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="7">
         <v>0.29092752933502197</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="9"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <v>0.99140352010726895</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>2.5070471689104999E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>0.93579769134521396</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
         <v>0.25358781218528698</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="9"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="7">
         <v>0.99508774280548096</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>1.9970465451478899E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>0.90758752822875899</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="7">
         <v>0.34286847710609403</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="9"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="7">
         <v>0.99491226673126198</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>1.76591798663139E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>0.92801558971404996</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="7">
         <v>0.28845801949500999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="9"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="7">
         <v>0.99157893657684304</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>2.6001553982496199E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <v>0.92315173149108798</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="7">
         <v>0.312717884778976</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="7">
         <v>0.99561405181884699</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>1.4313200488686499E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>0.93093383312225297</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="7">
         <v>0.31875517964363098</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="9"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="7">
         <v>0.99157893657684304</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>2.3323591798543899E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>0.910505831241607</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="7">
         <v>0.43413954973220797</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="9"/>
+    </row>
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>0.99192982912063599</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11">
         <v>2.5155533105134902E-2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11">
         <v>0.93385213613510099</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11">
         <v>0.26662886142730702</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="9"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="7">
         <v>0.99877190589904696</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>5.5194683372974396E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <v>0.93482488393783503</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <v>0.31541767716407698</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="9"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="7">
         <v>0.99578946828842096</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>1.3510904274880799E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
         <v>0.93093383312225297</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="7">
         <v>0.38658303022384599</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="9"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="7">
         <v>0.98894739151000899</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>3.49532663822174E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>0.928988337516784</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="7">
         <v>0.33572885394096302</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="9"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="7">
         <v>0.997017562389373</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>1.0959699749946501E-2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>0.93287938833236606</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="7">
         <v>0.35977029800415</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="9"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="13">
         <v>0.99771928787231401</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="13">
         <v>7.2493376210331899E-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="13">
         <v>0.93871593475341797</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="13">
         <v>0.25669094920158297</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="9"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="7">
         <v>0.99894738197326605</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>3.3005292061716301E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="7">
         <v>0.93287938833236606</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="7">
         <v>0.36829364299774098</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="7">
         <v>0.99929827451705899</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>2.38688965328037E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="7">
         <v>0.94455254077911299</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="7">
         <v>0.27205210924148499</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="7">
         <v>0.99929827451705899</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>1.38879509177058E-3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="7">
         <v>0.93871593475341797</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="7">
         <v>0.30760920047759999</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="7">
         <v>0.99947369098663297</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>1.0046571260318099E-3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="7">
         <v>0.94260698556900002</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="7">
         <v>0.30683675408363298</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="7">
         <v>0.99964910745620705</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>8.5099996067583496E-4</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="7">
         <v>0.94163423776626498</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="7">
         <v>0.31265854835510198</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>7.1248190943151702E-4</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="7">
         <v>0.94357979297637895</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="7">
         <v>0.31090843677520702</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="7">
         <v>0.99947369098663297</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>9.1415189672261401E-4</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="7">
         <v>0.94163423776626498</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="7">
         <v>0.315676540136337</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>5.77439670450985E-4</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="7">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="7">
         <v>0.31069803237915</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>4.0852074744179801E-4</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="7">
         <v>0.94455254077911299</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="7">
         <v>0.31799921393394398</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>3.72715381672605E-4</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="7">
         <v>0.94455254077911299</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="7">
         <v>0.31426569819450301</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>3.4607210545800599E-4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="7">
         <v>0.93968874216079701</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="7">
         <v>0.33111876249313299</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="7">
         <v>0.986666679382324</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>4.4308412820100701E-2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="7">
         <v>0.88715952634811401</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="7">
         <v>0.77400463819503695</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="7">
         <v>0.97210526466369596</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>8.3656981587409904E-2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="7">
         <v>0.91147857904434204</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="7">
         <v>0.39554607868194502</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="7">
         <v>0.98982453346252397</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>3.0633101239800401E-2</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="7">
         <v>0.93774318695068304</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="7">
         <v>0.27671304345130898</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="7">
         <v>0.993333339691162</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>1.8431445583701099E-2</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="7">
         <v>0.93482488393783503</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="7">
         <v>0.30280196666717502</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="7">
         <v>0.99789476394653298</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>8.4421653300523706E-3</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="7">
         <v>0.94163423776626498</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="7">
         <v>0.26900663971900901</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="7">
         <v>0.99947369098663297</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>2.1740081720054102E-3</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="7">
         <v>0.95233464241027799</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="7">
         <v>0.25571975111961298</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="9"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>1.05014420114457E-3</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="7">
         <v>0.2696353495121</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="9"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="7">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>6.6788727417588201E-4</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="7">
         <v>0.28437060117721502</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="9"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="7">
         <v>1</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>4.7721978626213897E-4</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="7">
         <v>0.29117918014526301</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="9"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="7">
         <v>1</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>4.2852686601690899E-4</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="7">
         <v>0.29350712895393299</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="9"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="7">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>3.67802393157035E-4</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="7">
         <v>0.29586073756217901</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="9"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="7">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>3.5076355561613999E-4</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="7">
         <v>0.29858031868934598</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="9"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="7">
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>3.32075462210923E-4</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="7">
         <v>0.301803648471832</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="9"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="7">
         <v>1</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>3.1116220634430598E-4</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="7">
         <v>0.30275174975395203</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="7">
         <v>1</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="7">
         <v>2.9487579013220901E-4</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="7">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="7">
         <v>0.304077267646789</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="9"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="7">
         <v>1</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>2.7679116465151299E-4</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="7">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="7">
         <v>0.30680799484252902</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="9"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="7">
         <v>1</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="7">
         <v>2.7127366047352498E-4</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="7">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="7">
         <v>0.31004542112350397</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="9"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="7">
         <v>1</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>2.4954610853455901E-4</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="7">
         <v>0.31068715453147799</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="9"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="7">
         <v>2.3079956008587E-4</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="7">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="7">
         <v>0.31387564539909302</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="9"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="7">
         <v>1</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="7">
         <v>2.25973548367619E-4</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="7">
         <v>0.95233464241027799</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="7">
         <v>0.31557792425155601</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="9"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="7">
         <v>1</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="7">
         <v>2.1752739849034599E-4</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="7">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="7">
         <v>0.31817850470542902</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="9"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="7">
         <v>1</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="7">
         <v>2.1383466082624999E-4</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="7">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="7">
         <v>0.31867513060569702</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="9"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="7">
         <v>1</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="7">
         <v>2.00809095986187E-4</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="7">
         <v>0.95233464241027799</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="7">
         <v>0.32012757658958402</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="9"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="7">
         <v>1</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>1.8779946549329901E-4</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="7">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="7">
         <v>0.32286524772643999</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="9"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="7">
         <v>1</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="7">
         <v>1.8357437511440299E-4</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="7">
         <v>0.32224568724632202</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="9"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="7">
         <v>1</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="7">
         <v>1.6993794997688299E-4</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="7">
         <v>0.329053044319152</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="9"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="7">
         <v>1</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>1.70419283676892E-4</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="7">
         <v>0.32661503553390497</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="9"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="7">
         <v>1</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>1.5578563034068701E-4</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="7">
         <v>0.331826031208038</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="9"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="7">
         <v>1</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="7">
         <v>1.5344088023994099E-4</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="7">
         <v>0.32615166902542098</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="9"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="7">
         <v>1</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="7">
         <v>1.3774479157291301E-4</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="7">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="7">
         <v>0.333579272031784</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="9"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="7">
         <v>1</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="7">
         <v>1.2875958054792101E-4</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="7">
         <v>0.33525419235229398</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="9"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="7">
         <v>1</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="7">
         <v>1.3127256534062299E-4</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="7">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="7">
         <v>0.33804702758789001</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="9"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="7">
         <v>1</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="7">
         <v>1.85074532055296E-4</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="7">
         <v>0.35291111469268799</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="9"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="7">
         <v>1</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="7">
         <v>1.1278726742602799E-4</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="7">
         <v>0.35292363166808999</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="9"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="7">
         <v>1</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="7">
         <v>9.7571697551757097E-5</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="7">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="7">
         <v>0.35719388723373402</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="9"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="7">
         <v>1</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="7">
         <v>8.5599560406990295E-5</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="7">
         <v>0.35749730467796298</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="9"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="7">
         <v>1</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="7">
         <v>7.7138152846600806E-5</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="7">
         <v>0.362793087959289</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="9"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="7">
         <v>1</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="7">
         <v>6.9063346018083394E-5</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="7">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="7">
         <v>0.368818879127502</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="9"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="7">
         <v>1</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="7">
         <v>8.4003637311980101E-5</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="7">
         <v>0.36086815595626798</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="9"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="7">
         <v>1</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="7">
         <v>7.2312825068365701E-5</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="7">
         <v>0.36093193292617798</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="9"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="7">
         <v>1</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="7">
         <v>5.6563349062343998E-5</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="7">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="7">
         <v>0.36534431576728799</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="9"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="7">
         <v>1</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="7">
         <v>4.36715999967418E-5</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="7">
         <v>0.36950796842575001</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="9"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="7">
         <v>1</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="7">
         <v>4.12887675338424E-5</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="7">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="7">
         <v>0.36801308393478299</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="9"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="7">
         <v>1</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="7">
         <v>3.5980821849079803E-5</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="7">
         <v>0.370748370885849</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="9"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="7">
         <v>1</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="7">
         <v>3.0520463042193997E-5</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="7">
         <v>0.374008119106292</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="9"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="7">
         <v>1</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="7">
         <v>3.04823224723804E-5</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="7">
         <v>0.37185713648795998</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="9"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="7">
         <v>1</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="7">
         <v>2.87473758362466E-5</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="7">
         <v>0.37649151682853699</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="9"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="7">
         <v>1</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="7">
         <v>2.5814615582930801E-5</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="7">
         <v>0.37811732292175199</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="9"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="7">
         <v>1</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="7">
         <v>2.3425007384503199E-5</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="7">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="7">
         <v>0.38019970059394798</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="9"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="7">
         <v>1</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="7">
         <v>2.12997183552943E-5</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="7">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="7">
         <v>0.38308385014533902</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="9"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="7">
         <v>1</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="7">
         <v>2.0213692550896599E-5</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="7">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="7">
         <v>0.38599297404289201</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="9"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="7">
         <v>1</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="7">
         <v>2.1587953597190698E-5</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="7">
         <v>0.38962808251380898</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="9"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="7">
         <v>1</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="7">
         <v>1.7229376680916101E-5</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="7">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="7">
         <v>0.39246535301208402</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="9"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="7">
         <v>1</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="7">
         <v>1.5658697520848299E-5</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="7">
         <v>0.39867785573005599</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="9"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="7">
         <v>1</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="7">
         <v>1.5698213246650899E-5</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="7">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="7">
         <v>0.39950668811798001</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="9"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="7">
         <v>1</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="7">
         <v>1.4177088814903901E-5</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="7">
         <v>0.39915701746940602</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="9"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="7">
         <v>1</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="7">
         <v>1.48887511386419E-5</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="7">
         <v>0.399930208921432</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="9"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="7">
         <v>1</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="7">
         <v>1.32948134705657E-5</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="7">
         <v>0.40139970183372498</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="9"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="7">
         <v>1</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="7">
         <v>1.22999663290102E-5</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="7">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="7">
         <v>0.40372169017791698</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="9"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="7">
         <v>1</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="7">
         <v>1.19101860036607E-5</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="7">
         <v>0.40369561314582803</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="9"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="7">
         <v>1</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="7">
         <v>1.540212360851E-5</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="7">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="7">
         <v>0.41859516501426602</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="9"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="7">
         <v>1</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="7">
         <v>1.19011510832933E-5</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="7">
         <v>0.947470843791961</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="7">
         <v>0.41315296292304898</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="9"/>
+    </row>
+    <row r="101" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="16">
         <v>1</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="16">
         <v>1.12668803922133E-5</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="16">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="16">
         <v>0.40580558776855402</v>
       </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F27:I29"/>
   </mergeCells>
+  <conditionalFormatting sqref="AG2:AG13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(AG2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62521D62-95B5-4DD3-91E8-0D819D581B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC490149-B592-46F3-A5BA-C5C9D23A42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9285" yWindow="0" windowWidth="19620" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП3" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="34">
   <si>
     <t>NetName = D:\git\AI-methods-and-systems\rez_dir\NN_L5_Best.hdf5</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>avg_accuracy</t>
+  </si>
+  <si>
+    <t>second_filters_count</t>
+  </si>
+  <si>
+    <t>kernel_size</t>
+  </si>
+  <si>
+    <t>strides</t>
   </si>
 </sst>
 </file>
@@ -255,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,30 +272,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4988,6 +5020,618 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1184197792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>КП5!$AJ$2:$AJ$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AK$2:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.92730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91759999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E62-4391-848C-34ABA6899058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>КП5!$AJ$2:$AJ$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AL$2:$AL$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E62-4391-848C-34ABA6899058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>КП5!$AJ$2:$AJ$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AM$2:$AM$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.94843999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95530000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E62-4391-848C-34ABA6899058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="142498016"/>
+        <c:axId val="142485056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="142498016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142485056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142485056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.91"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142498016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5274,6 +5918,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7339,6 +8023,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8011,16 +9211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8043,6 +9243,152 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Діаграма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209C650D-D0E5-BF29-FBAC-3762871FE926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Пряма сполучна лінія 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9138D2-08A6-0E6E-AA9C-E348662B9A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17668875" y="2647950"/>
+          <a:ext cx="0" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Пряма сполучна лінія 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D074AB-1B2B-4A2D-BF31-1666ACC882D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23279100" y="2657475"/>
+          <a:ext cx="0" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8672,7 +10018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE644021-18BF-44A6-A44F-44F14A407C78}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
@@ -10895,7 +12241,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10907,10 +12253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F35E-88F3-4455-8CFA-3699849210C8}">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10918,7 +12264,7 @@
     <col min="28" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -10973,166 +12319,220 @@
       </c>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="5"/>
+      <c r="AR1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="2">
         <v>0.69719296693801802</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>0.66388553380966098</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>0.62937742471694902</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
         <v>0.81954610347747803</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="8">
+      <c r="AB2">
         <v>16</v>
       </c>
-      <c r="AC2" s="19">
+      <c r="AC2" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="AD2" s="19">
+      <c r="AD2" s="1">
         <v>1</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="1">
         <v>0.94650000000000001</v>
       </c>
-      <c r="AF2" s="19">
+      <c r="AF2" s="1">
         <f>AVERAGE(AC2:AE2)</f>
         <v>0.96016666666666672</v>
       </c>
-      <c r="AG2" s="8" t="str">
-        <f>IF(AF2=$AF$14,"best","")</f>
+      <c r="AG2" t="str">
+        <f>IF(AF2=$AF$14,"best",IF(OR(AF2=$AF$15,AF2=$AF$28),"worst",""))</f>
         <v/>
       </c>
-      <c r="AH2" s="9"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="17">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="AL2" s="18">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.94843999999999995</v>
+      </c>
+      <c r="AN2" s="18">
+        <f>AVERAGE(AK2:AM2)</f>
+        <v>0.95447999999999988</v>
+      </c>
+      <c r="AO2" s="17" t="str">
+        <f>IF(AN2=$AN$14,"best","")</f>
+        <v/>
+      </c>
+      <c r="AP2" s="7"/>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="AW2" s="1">
+        <f>AVERAGE(AT2:AV2)</f>
+        <v>0.92733333333333334</v>
+      </c>
+      <c r="AX2" t="str">
+        <f>IF(AW2=$AW$38,"best","")</f>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>0.78245615959167403</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>0.39757084846496499</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>0.85214006900787298</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>0.58643668889999301</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="8">
+      <c r="AB3">
         <v>32</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="1">
         <v>0.93210000000000004</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="1">
         <v>1</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="1">
         <v>0.95040000000000002</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="1">
         <f t="shared" ref="AF3:AF13" si="0">AVERAGE(AC3:AE3)</f>
         <v>0.96083333333333343</v>
       </c>
-      <c r="AG3" s="8" t="str">
-        <f t="shared" ref="AG3:AG13" si="1">IF(AF3=$AF$14,"best","")</f>
+      <c r="AG3" t="str">
+        <f t="shared" ref="AG3:AG13" si="1">IF(AF3=$AF$14,"best",IF(OR(AF3=$AF$15,AF3=$AF$28),"worst",""))</f>
         <v/>
       </c>
-      <c r="AH3" s="9"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="17">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0.9214</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="AN3" s="18">
+        <f t="shared" ref="AN3:AN13" si="2">AVERAGE(AK3:AM3)</f>
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="AO3" s="17" t="str">
+        <f t="shared" ref="AO3:AO13" si="3">IF(AN3=$AN$14,"best","")</f>
+        <v/>
+      </c>
+      <c r="AP3" s="7"/>
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1"/>
+      <c r="AX3" t="str">
+        <f>IF(AW3=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="2">
         <v>0.89508771896362305</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <v>0.29037144780158902</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>0.90175098180770796</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>0.39232969284057601</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="8">
+      <c r="AB4" s="15">
         <v>48</v>
       </c>
       <c r="AC4" s="19">
@@ -11148,1167 +12548,1273 @@
         <f t="shared" si="0"/>
         <v>0.96343333333333325</v>
       </c>
-      <c r="AG4" s="8" t="str">
+      <c r="AG4" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-      <c r="AH4" s="9"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="17">
+        <v>48</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="AN4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="AO4" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP4" s="7"/>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="1"/>
+      <c r="AX4" t="str">
+        <f>IF(AW4=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>0.92473685741424505</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>0.21387992799281999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>0.87937742471694902</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>0.34127280116081199</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="7"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="8">
+      <c r="AB5">
         <v>64</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="1">
         <v>0.93500000000000005</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="1">
         <v>0.99980000000000002</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="1">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="1">
         <f t="shared" si="0"/>
         <v>0.9630333333333333</v>
       </c>
-      <c r="AG5" s="8" t="str">
+      <c r="AG5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH5" s="9"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="17">
+        <v>64</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="AN5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="AO5" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP5" s="7"/>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="1"/>
+      <c r="AX5" t="str">
+        <f>IF(AW5=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="2">
         <v>0.93754386901855402</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>0.17251425981521601</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>0.87159532308578402</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>0.31866788864135698</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="9"/>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="8">
+      <c r="AB6">
         <v>80</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="1">
         <v>0.93989999999999996</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="1">
         <v>0.99839999999999995</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="1">
         <v>0.94650000000000001</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="1">
         <f t="shared" si="0"/>
         <v>0.9615999999999999</v>
       </c>
-      <c r="AG6" s="8" t="str">
+      <c r="AG6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH6" s="9"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="17">
+        <v>80</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AN6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96233333333333337</v>
+      </c>
+      <c r="AO6" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP6" s="7"/>
+      <c r="AR6">
+        <v>5</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1"/>
+      <c r="AX6" t="str">
+        <f>IF(AW6=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>0.95228070020675604</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>0.13544726371765101</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>0.89299613237380904</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>0.258992940187454</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="8">
+      <c r="AB7">
         <v>96</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AC7" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="1">
         <v>1</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="1">
         <v>0.95530000000000004</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="1">
         <f t="shared" si="0"/>
         <v>0.96310000000000018</v>
       </c>
-      <c r="AG7" s="8" t="str">
+      <c r="AG7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH7" s="9"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="20">
+        <v>96</v>
+      </c>
+      <c r="AK7" s="21">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AL7" s="21">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AM7" s="21">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="AN7" s="21">
+        <f t="shared" si="2"/>
+        <v>0.96626666666666672</v>
+      </c>
+      <c r="AO7" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>best</v>
+      </c>
+      <c r="AP7" s="7"/>
+      <c r="AR7">
+        <v>5</v>
+      </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="1"/>
+      <c r="AX7" t="str">
+        <f>IF(AW7=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="2">
         <v>0.96473681926727295</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>0.100270152091979</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2">
         <v>0.91731518507003695</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>0.215465873479843</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="9"/>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="8">
+      <c r="AB8">
         <v>112</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AC8" s="1">
         <v>0.94079999999999997</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="1">
         <v>0.99750000000000005</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE8" s="1">
         <v>0.94940000000000002</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AF8" s="1">
         <f t="shared" si="0"/>
         <v>0.96256666666666657</v>
       </c>
-      <c r="AG8" s="8" t="str">
+      <c r="AG8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH8" s="9"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="17">
+        <v>112</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="AN8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96363333333333345</v>
+      </c>
+      <c r="AO8" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP8" s="7"/>
+      <c r="AR8">
+        <v>5</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8" s="1"/>
+      <c r="AX8" t="str">
+        <f>IF(AW8=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="2">
         <v>0.95842105150222701</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
         <v>0.11027061939239501</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>0.92704278230667103</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>0.20023864507675099</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="8">
+      <c r="AB9">
         <v>128</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC9" s="1">
         <v>0.94369999999999998</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="1">
         <v>0.98740000000000006</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE9" s="1">
         <v>0.95140000000000002</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9" s="1">
         <f t="shared" si="0"/>
         <v>0.96083333333333343</v>
       </c>
-      <c r="AG9" s="8" t="str">
+      <c r="AG9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH9" s="9"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="17">
+        <v>128</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AN9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96566666666666678</v>
+      </c>
+      <c r="AO9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP9" s="7"/>
+      <c r="AR9">
+        <v>5</v>
+      </c>
+      <c r="AS9">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="1"/>
+      <c r="AX9" t="str">
+        <f>IF(AW9=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="2">
         <v>0.964385986328125</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <v>9.8939917981624603E-2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2">
         <v>0.92315173149108798</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>0.25055548548698398</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="9"/>
+      <c r="Z10" s="7"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="8">
+      <c r="AB10">
         <v>196</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="1">
         <v>0.94079999999999997</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="1">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE10" s="1">
         <v>0.94750000000000001</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AF10" s="1">
         <f t="shared" si="0"/>
         <v>0.96266666666666667</v>
       </c>
-      <c r="AG10" s="8" t="str">
+      <c r="AG10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH10" s="9"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="17">
+        <v>160</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AN10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.9620333333333333</v>
+      </c>
+      <c r="AO10" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP10" s="7"/>
+      <c r="AR10">
+        <v>5</v>
+      </c>
+      <c r="AS10">
+        <v>5</v>
+      </c>
+      <c r="AT10" s="1"/>
+      <c r="AX10" t="str">
+        <f>IF(AW10=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="2">
         <v>0.97877192497253396</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>6.3260667026042897E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <v>0.92801558971404996</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>0.23159405589103699</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="8">
+      <c r="AB11">
         <v>256</v>
       </c>
-      <c r="AC11" s="19">
+      <c r="AC11" s="1">
         <v>0.93310000000000004</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="1">
         <v>1</v>
       </c>
-      <c r="AE11" s="19">
+      <c r="AE11" s="1">
         <v>0.94940000000000002</v>
       </c>
-      <c r="AF11" s="19">
+      <c r="AF11" s="1">
         <f t="shared" si="0"/>
         <v>0.96083333333333343</v>
       </c>
-      <c r="AG11" s="8" t="str">
+      <c r="AG11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH11" s="9"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="17">
+        <v>192</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0.9446</v>
+      </c>
+      <c r="AN11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.9615999999999999</v>
+      </c>
+      <c r="AO11" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP11" s="7"/>
+      <c r="AR11">
+        <v>7</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="str">
+        <f>IF(AW11=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="2">
         <v>0.98245614767074496</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <v>4.9864497035741799E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="2">
         <v>0.90953308343887296</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>0.282427698373794</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="8">
+      <c r="AB12">
         <v>512</v>
       </c>
-      <c r="AC12" s="19">
+      <c r="AC12" s="1">
         <v>0.93020000000000003</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="1">
         <v>0.99650000000000005</v>
       </c>
-      <c r="AE12" s="19">
+      <c r="AE12" s="1">
         <v>0.94650000000000001</v>
       </c>
-      <c r="AF12" s="19">
+      <c r="AF12" s="1">
         <f t="shared" si="0"/>
         <v>0.95773333333333344</v>
       </c>
-      <c r="AG12" s="8" t="str">
+      <c r="AG12" t="str">
         <f t="shared" si="1"/>
+        <v>worst</v>
+      </c>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="17">
+        <v>224</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="18">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="AN12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96179999999999988</v>
+      </c>
+      <c r="AO12" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH12" s="9"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AP12" s="7"/>
+      <c r="AR12">
+        <v>7</v>
+      </c>
+      <c r="AS12">
+        <v>2</v>
+      </c>
+      <c r="AX12" t="str">
+        <f>IF(AW12=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="2">
         <v>0.99000000953674305</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <v>3.2924704253673498E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="2">
         <v>0.93093383312225297</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <v>0.208540484309196</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="8">
+      <c r="AB13">
         <v>1024</v>
       </c>
-      <c r="AC13" s="19">
+      <c r="AC13" s="1">
         <v>0.92730000000000001</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AD13" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="AE13" s="19">
+      <c r="AE13" s="1">
         <v>0.93189999999999995</v>
       </c>
-      <c r="AF13" s="19">
+      <c r="AF13" s="1">
         <f t="shared" si="0"/>
         <v>0.9482666666666667</v>
       </c>
-      <c r="AG13" s="8" t="str">
+      <c r="AG13" t="str">
         <f t="shared" si="1"/>
+        <v>worst</v>
+      </c>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="17">
+        <v>256</v>
+      </c>
+      <c r="AK13" s="18">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="AN13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.95306666666666662</v>
+      </c>
+      <c r="AO13" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH13" s="9"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AP13" s="7"/>
+      <c r="AR13">
+        <v>7</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AX13" t="str">
+        <f>IF(AW13=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="2">
         <v>0.99368423223495395</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="2">
         <v>2.1230602636933299E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="2">
         <v>0.93774318695068304</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>0.22846239805221499</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="19">
+      <c r="AF14" s="1">
         <f>MAX(AF2:AF13)</f>
         <v>0.96343333333333325</v>
       </c>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="9"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="18">
+        <f>MAX(AN2:AN13)</f>
+        <v>0.96626666666666672</v>
+      </c>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="7"/>
+      <c r="AR14">
+        <v>7</v>
+      </c>
+      <c r="AS14">
+        <v>4</v>
+      </c>
+      <c r="AX14" t="str">
+        <f>IF(AW14=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="2">
         <v>0.996315777301788</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="2">
         <v>1.5233219601213901E-2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>0.91731518507003695</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>0.29092752933502197</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF15" s="1">
+        <f>MIN(AF2:AF13)</f>
+        <v>0.9482666666666667</v>
+      </c>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="7"/>
+      <c r="AR15">
+        <v>7</v>
+      </c>
+      <c r="AS15">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="str">
+        <f>IF(AW15=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="2">
         <v>0.99140352010726895</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="2">
         <v>2.5070471689104999E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="2">
         <v>0.93579769134521396</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>0.25358781218528698</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="9"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE16" s="1">
+        <f>IF(AF2&lt;&gt;$AF$15,AF2,"")</f>
+        <v>0.96016666666666672</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="7"/>
+      <c r="AR16">
+        <v>7</v>
+      </c>
+      <c r="AS16">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="str">
+        <f>IF(AW16=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="2">
         <v>0.99508774280548096</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="2">
         <v>1.9970465451478899E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="2">
         <v>0.90758752822875899</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <v>0.34286847710609403</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="9"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE17" s="1">
+        <f t="shared" ref="AE17:AE26" si="4">IF(AF3&lt;&gt;$AF$15,AF3,"")</f>
+        <v>0.96083333333333343</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="7"/>
+      <c r="AR17">
+        <v>7</v>
+      </c>
+      <c r="AS17">
+        <v>7</v>
+      </c>
+      <c r="AX17" t="str">
+        <f>IF(AW17=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="2">
         <v>0.99491226673126198</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <v>1.76591798663139E-2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="2">
         <v>0.92801558971404996</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>0.28845801949500999</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="9"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96343333333333325</v>
+      </c>
+      <c r="AF18" s="1"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="7"/>
+      <c r="AR18">
+        <v>9</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="str">
+        <f>IF(AW18=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="2">
         <v>0.99157893657684304</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="2">
         <v>2.6001553982496199E-2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="2">
         <v>0.92315173149108798</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <v>0.312717884778976</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="6"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="9"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9630333333333333</v>
+      </c>
+      <c r="AF19" s="1"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="7"/>
+      <c r="AR19">
+        <v>9</v>
+      </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AX19" t="str">
+        <f>IF(AW19=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="2">
         <v>0.99561405181884699</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2">
         <v>1.4313200488686499E-2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <v>0.93093383312225297</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>0.31875517964363098</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="9"/>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="9"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9615999999999999</v>
+      </c>
+      <c r="AF20" s="1"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="7"/>
+      <c r="AR20">
+        <v>9</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AX20" t="str">
+        <f>IF(AW20=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="2">
         <v>0.99157893657684304</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="2">
         <v>2.3323591798543899E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="2">
         <v>0.910505831241607</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <v>0.43413954973220797</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="9"/>
-    </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="AE21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96310000000000018</v>
+      </c>
+      <c r="AF21" s="1"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="7"/>
+      <c r="AR21">
+        <v>9</v>
+      </c>
+      <c r="AS21">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="str">
+        <f>IF(AW21=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="2">
         <v>0.99192982912063599</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="2">
         <v>2.5155533105134902E-2</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="2">
         <v>0.93385213613510099</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="2">
         <v>0.26662886142730702</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="9"/>
+      <c r="Z22" s="7"/>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="9"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96256666666666657</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="7"/>
+      <c r="AR22">
+        <v>9</v>
+      </c>
+      <c r="AS22">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="str">
+        <f>IF(AW22=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="2">
         <v>0.99877190589904696</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="2">
         <v>5.5194683372974396E-3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="2">
         <v>0.93482488393783503</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="2">
         <v>0.31541767716407698</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="7"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="9"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96083333333333343</v>
+      </c>
+      <c r="AF23" s="1"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="7"/>
+      <c r="AR23">
+        <v>9</v>
+      </c>
+      <c r="AS23">
+        <v>6</v>
+      </c>
+      <c r="AX23" t="str">
+        <f>IF(AW23=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="2">
         <v>0.99578946828842096</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="2">
         <v>1.3510904274880799E-2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="2">
         <v>0.93093383312225297</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="2">
         <v>0.38658303022384599</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="9"/>
+      <c r="Z24" s="7"/>
       <c r="AA24" s="6"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="9"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE24" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96266666666666667</v>
+      </c>
+      <c r="AF24" s="1"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="7"/>
+      <c r="AR24">
+        <v>9</v>
+      </c>
+      <c r="AS24">
+        <v>7</v>
+      </c>
+      <c r="AX24" t="str">
+        <f>IF(AW24=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="2">
         <v>0.98894739151000899</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="2">
         <v>3.49532663822174E-2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="2">
         <v>0.928988337516784</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="2">
         <v>0.33572885394096302</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="9"/>
+      <c r="Z25" s="7"/>
       <c r="AA25" s="6"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="9"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96083333333333343</v>
+      </c>
+      <c r="AF25" s="1"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="7"/>
+      <c r="AR25">
+        <v>9</v>
+      </c>
+      <c r="AS25">
+        <v>8</v>
+      </c>
+      <c r="AX25" t="str">
+        <f>IF(AW25=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="2">
         <v>0.997017562389373</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2">
         <v>1.0959699749946501E-2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <v>0.93287938833236606</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
         <v>0.35977029800415</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="7"/>
       <c r="AA26" s="6"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="9"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="AE26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.95773333333333344</v>
+      </c>
+      <c r="AF26" s="1"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="7"/>
+      <c r="AR26">
+        <v>9</v>
+      </c>
+      <c r="AS26">
+        <v>9</v>
+      </c>
+      <c r="AX26" t="str">
+        <f>IF(AW26=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="9">
         <v>0.99771928787231401</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>7.2493376210331899E-3</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <v>0.93871593475341797</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="9">
         <v>0.25669094920158297</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -12317,2859 +13823,1536 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="7"/>
       <c r="AA27" s="6"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="9"/>
-    </row>
-    <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE27" s="1" t="str">
+        <f>IF(AF13&lt;&gt;$AF$15,AF13,"")</f>
+        <v/>
+      </c>
+      <c r="AF27" s="1"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="7"/>
+      <c r="AR27">
+        <v>11</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="str">
+        <f>IF(AW27=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="2">
         <v>0.99894738197326605</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="2">
         <v>3.3005292061716301E-3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <v>0.93287938833236606</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="2">
         <v>0.36829364299774098</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="18"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16">
+        <f>MIN(AE16:AE27)</f>
+        <v>0.95773333333333344</v>
+      </c>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="13"/>
+      <c r="AR28">
+        <v>11</v>
+      </c>
+      <c r="AS28">
+        <v>2</v>
+      </c>
+      <c r="AX28" t="str">
+        <f>IF(AW28=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="2">
         <v>0.99929827451705899</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="2">
         <v>2.38688965328037E-3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <v>0.94455254077911299</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="2">
         <v>0.27205210924148499</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="9"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z29" s="7"/>
+      <c r="AR29">
+        <v>11</v>
+      </c>
+      <c r="AS29">
+        <v>3</v>
+      </c>
+      <c r="AX29" t="str">
+        <f>IF(AW29=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="2">
         <v>0.99929827451705899</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="2">
         <v>1.38879509177058E-3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="2">
         <v>0.93871593475341797</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="2">
         <v>0.30760920047759999</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="9"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z30" s="7"/>
+      <c r="AR30">
+        <v>11</v>
+      </c>
+      <c r="AS30">
+        <v>4</v>
+      </c>
+      <c r="AX30" t="str">
+        <f>IF(AW30=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="2">
         <v>0.99947369098663297</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="2">
         <v>1.0046571260318099E-3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="2">
         <v>0.94260698556900002</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="2">
         <v>0.30683675408363298</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="9"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z31" s="7"/>
+      <c r="AR31">
+        <v>11</v>
+      </c>
+      <c r="AS31">
+        <v>5</v>
+      </c>
+      <c r="AX31" t="str">
+        <f>IF(AW31=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="2">
         <v>0.99964910745620705</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="2">
         <v>8.5099996067583496E-4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="2">
         <v>0.94163423776626498</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="2">
         <v>0.31265854835510198</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="9"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z32" s="7"/>
+      <c r="AR32">
+        <v>11</v>
+      </c>
+      <c r="AS32">
+        <v>6</v>
+      </c>
+      <c r="AX32" t="str">
+        <f>IF(AW32=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="2">
         <v>7.1248190943151702E-4</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="2">
         <v>0.94357979297637895</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="2">
         <v>0.31090843677520702</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="9"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z33" s="7"/>
+      <c r="AR33">
+        <v>11</v>
+      </c>
+      <c r="AS33">
+        <v>7</v>
+      </c>
+      <c r="AX33" t="str">
+        <f>IF(AW33=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="2">
         <v>0.99947369098663297</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <v>9.1415189672261401E-4</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="2">
         <v>0.94163423776626498</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="2">
         <v>0.315676540136337</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="9"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z34" s="7"/>
+      <c r="AR34">
+        <v>11</v>
+      </c>
+      <c r="AS34">
+        <v>8</v>
+      </c>
+      <c r="AX34" t="str">
+        <f>IF(AW34=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="2">
         <v>5.77439670450985E-4</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="2">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="2">
         <v>0.31069803237915</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="9"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="7"/>
+      <c r="AR35">
+        <v>11</v>
+      </c>
+      <c r="AS35">
+        <v>9</v>
+      </c>
+      <c r="AX35" t="str">
+        <f>IF(AW35=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="2">
         <v>4.0852074744179801E-4</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="2">
         <v>0.94455254077911299</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="2">
         <v>0.31799921393394398</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="9"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="7"/>
+      <c r="AR36">
+        <v>11</v>
+      </c>
+      <c r="AS36">
+        <v>10</v>
+      </c>
+      <c r="AX36" t="str">
+        <f>IF(AW36=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="2">
         <v>3.72715381672605E-4</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="2">
         <v>0.94455254077911299</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="2">
         <v>0.31426569819450301</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="7"/>
+      <c r="AR37">
+        <v>11</v>
+      </c>
+      <c r="AS37">
+        <v>11</v>
+      </c>
+      <c r="AX37" t="str">
+        <f>IF(AW37=$AW$38,"best","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="2">
         <v>3.4607210545800599E-4</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="2">
         <v>0.93968874216079701</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="2">
         <v>0.33111876249313299</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="7"/>
+      <c r="AW38" s="1">
+        <f>MAX(AW2:AW37)</f>
+        <v>0.92733333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="2">
         <v>0.986666679382324</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="2">
         <v>4.4308412820100701E-2</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="2">
         <v>0.88715952634811401</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="2">
         <v>0.77400463819503695</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="7"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="2">
         <v>0.97210526466369596</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="2">
         <v>8.3656981587409904E-2</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="2">
         <v>0.91147857904434204</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="2">
         <v>0.39554607868194502</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="9"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z40" s="7"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="2">
         <v>0.98982453346252397</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="2">
         <v>3.0633101239800401E-2</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="2">
         <v>0.93774318695068304</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="2">
         <v>0.27671304345130898</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z41" s="7"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="2">
         <v>0.993333339691162</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="2">
         <v>1.8431445583701099E-2</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="2">
         <v>0.93482488393783503</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="2">
         <v>0.30280196666717502</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="9"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="2">
         <v>0.99789476394653298</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="2">
         <v>8.4421653300523706E-3</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="2">
         <v>0.94163423776626498</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="2">
         <v>0.26900663971900901</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="9"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="2">
         <v>0.99947369098663297</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="2">
         <v>2.1740081720054102E-3</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="2">
         <v>0.95233464241027799</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="2">
         <v>0.25571975111961298</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="9"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z44" s="7"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="2">
         <v>1.05014420114457E-3</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="2">
         <v>0.2696353495121</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="9"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z45" s="7"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="2">
         <v>0.99982458353042603</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="2">
         <v>6.6788727417588201E-4</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="2">
         <v>0.28437060117721502</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="9"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="2">
         <v>4.7721978626213897E-4</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="2">
         <v>0.29117918014526301</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="9"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="2">
         <v>4.2852686601690899E-4</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="2">
         <v>0.29350712895393299</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="9"/>
+      <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="2">
         <v>3.67802393157035E-4</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="2">
         <v>0.29586073756217901</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="9"/>
+      <c r="Z49" s="7"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="2">
         <v>3.5076355561613999E-4</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="2">
         <v>0.29858031868934598</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="9"/>
+      <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="2">
         <v>3.32075462210923E-4</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="2">
         <v>0.301803648471832</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="9"/>
+      <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="2">
         <v>3.1116220634430598E-4</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="2">
         <v>0.30275174975395203</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="9"/>
+      <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="2">
         <v>2.9487579013220901E-4</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="2">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="2">
         <v>0.304077267646789</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="9"/>
+      <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="2">
         <v>2.7679116465151299E-4</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="2">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="2">
         <v>0.30680799484252902</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="9"/>
+      <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="2">
         <v>2.7127366047352498E-4</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="2">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="2">
         <v>0.31004542112350397</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="9"/>
+      <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="2">
         <v>2.4954610853455901E-4</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="2">
         <v>0.31068715453147799</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="9"/>
+      <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="2">
         <v>2.3079956008587E-4</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="2">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="2">
         <v>0.31387564539909302</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="9"/>
+      <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="2">
         <v>2.25973548367619E-4</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="2">
         <v>0.95233464241027799</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="2">
         <v>0.31557792425155601</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="9"/>
+      <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="2">
         <v>2.1752739849034599E-4</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="2">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="2">
         <v>0.31817850470542902</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="9"/>
+      <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="2">
         <v>2.1383466082624999E-4</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="2">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="2">
         <v>0.31867513060569702</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="9"/>
+      <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="2">
         <v>1</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="2">
         <v>2.00809095986187E-4</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="2">
         <v>0.95233464241027799</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="2">
         <v>0.32012757658958402</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="9"/>
+      <c r="Z61" s="7"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="2">
         <v>1.8779946549329901E-4</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="2">
         <v>0.95136189460754395</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="2">
         <v>0.32286524772643999</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="9"/>
+      <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="2">
         <v>1.8357437511440299E-4</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="2">
         <v>0.32224568724632202</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="9"/>
+      <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="2">
         <v>1</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="2">
         <v>1.6993794997688299E-4</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="2">
         <v>0.329053044319152</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="9"/>
+      <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="2">
         <v>1.70419283676892E-4</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="2">
         <v>0.32661503553390497</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="9"/>
+      <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="2">
         <v>1</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="2">
         <v>1.5578563034068701E-4</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="2">
         <v>0.331826031208038</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="9"/>
+      <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="2">
         <v>1.5344088023994099E-4</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="2">
         <v>0.32615166902542098</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="9"/>
+      <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="2">
         <v>1</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="2">
         <v>1.3774479157291301E-4</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="2">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="2">
         <v>0.333579272031784</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="9"/>
+      <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="2">
         <v>1.2875958054792101E-4</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="2">
         <v>0.33525419235229398</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="9"/>
+      <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="2">
         <v>1</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="2">
         <v>1.3127256534062299E-4</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="2">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="2">
         <v>0.33804702758789001</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="9"/>
+      <c r="Z70" s="7"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="2">
         <v>1.85074532055296E-4</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="2">
         <v>0.35291111469268799</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="9"/>
+      <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="2">
         <v>1</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="2">
         <v>1.1278726742602799E-4</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="2">
         <v>0.35292363166808999</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="9"/>
+      <c r="Z72" s="7"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="2">
         <v>9.7571697551757097E-5</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="2">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="2">
         <v>0.35719388723373402</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="9"/>
+      <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="2">
         <v>1</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="2">
         <v>8.5599560406990295E-5</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="2">
         <v>0.35749730467796298</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="9"/>
+      <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="2">
         <v>1</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="2">
         <v>7.7138152846600806E-5</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="2">
         <v>0.362793087959289</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="9"/>
+      <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="2">
         <v>1</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="2">
         <v>6.9063346018083394E-5</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="2">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="2">
         <v>0.368818879127502</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="9"/>
+      <c r="Z76" s="7"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="2">
         <v>8.4003637311980101E-5</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="2">
         <v>0.36086815595626798</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="9"/>
+      <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="2">
         <v>1</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="2">
         <v>7.2312825068365701E-5</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="2">
         <v>0.36093193292617798</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="9"/>
+      <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="2">
         <v>5.6563349062343998E-5</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="2">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="2">
         <v>0.36534431576728799</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="9"/>
+      <c r="Z79" s="7"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="2">
         <v>4.36715999967418E-5</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="2">
         <v>0.36950796842575001</v>
       </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="9"/>
+      <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="2">
         <v>1</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="2">
         <v>4.12887675338424E-5</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="2">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="2">
         <v>0.36801308393478299</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="9"/>
+      <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="2">
         <v>1</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="2">
         <v>3.5980821849079803E-5</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="2">
         <v>0.370748370885849</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="9"/>
+      <c r="Z82" s="7"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="2">
         <v>3.0520463042193997E-5</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="2">
         <v>0.374008119106292</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="9"/>
+      <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="2">
         <v>1</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="2">
         <v>3.04823224723804E-5</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="2">
         <v>0.37185713648795998</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="9"/>
+      <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="2">
         <v>1</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="2">
         <v>2.87473758362466E-5</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="2">
         <v>0.37649151682853699</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="9"/>
+      <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="2">
         <v>1</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="2">
         <v>2.5814615582930801E-5</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="2">
         <v>0.37811732292175199</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="9"/>
+      <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="2">
         <v>1</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="2">
         <v>2.3425007384503199E-5</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="2">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="2">
         <v>0.38019970059394798</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="9"/>
+      <c r="Z87" s="7"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="2">
         <v>1</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="2">
         <v>2.12997183552943E-5</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="2">
         <v>0.95038908720016402</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="2">
         <v>0.38308385014533902</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="9"/>
+      <c r="Z88" s="7"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="2">
         <v>1</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="2">
         <v>2.0213692550896599E-5</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="2">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="2">
         <v>0.38599297404289201</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="9"/>
+      <c r="Z89" s="7"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="2">
         <v>1</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="2">
         <v>2.1587953597190698E-5</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="2">
         <v>0.38962808251380898</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="9"/>
+      <c r="Z90" s="7"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="2">
         <v>1</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="2">
         <v>1.7229376680916101E-5</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="2">
         <v>0.94844359159469604</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="2">
         <v>0.39246535301208402</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="9"/>
+      <c r="Z91" s="7"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="2">
         <v>1</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="2">
         <v>1.5658697520848299E-5</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="2">
         <v>0.39867785573005599</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="9"/>
+      <c r="Z92" s="7"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="2">
         <v>1</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="2">
         <v>1.5698213246650899E-5</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="2">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="2">
         <v>0.39950668811798001</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="8"/>
-      <c r="Y93" s="8"/>
-      <c r="Z93" s="9"/>
+      <c r="Z93" s="7"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="2">
         <v>1</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="2">
         <v>1.4177088814903901E-5</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="2">
         <v>0.39915701746940602</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="9"/>
+      <c r="Z94" s="7"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="2">
         <v>1.48887511386419E-5</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="2">
         <v>0.399930208921432</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="Z95" s="9"/>
+      <c r="Z95" s="7"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="2">
         <v>1</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="2">
         <v>1.32948134705657E-5</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="2">
         <v>0.40139970183372498</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="9"/>
+      <c r="Z96" s="7"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="2">
         <v>1</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="2">
         <v>1.22999663290102E-5</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="2">
         <v>0.94649803638458196</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="2">
         <v>0.40372169017791698</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="9"/>
+      <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="2">
         <v>1</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="2">
         <v>1.19101860036607E-5</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="2">
         <v>0.40369561314582803</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="8"/>
-      <c r="Y98" s="8"/>
-      <c r="Z98" s="9"/>
+      <c r="Z98" s="7"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="2">
         <v>1</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="2">
         <v>1.540212360851E-5</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="2">
         <v>0.94552528858184803</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="2">
         <v>0.41859516501426602</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="8"/>
-      <c r="Z99" s="9"/>
+      <c r="Z99" s="7"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="2">
         <v>1.19011510832933E-5</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="2">
         <v>0.947470843791961</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="2">
         <v>0.41315296292304898</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="9"/>
+      <c r="Z100" s="7"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15">
+      <c r="A101" s="10">
         <v>99</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="11">
         <v>1</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="11">
         <v>1.12668803922133E-5</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="11">
         <v>0.94941633939742998</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="11">
         <v>0.40580558776855402</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="18"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F27:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="AG2:AG13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(AG2))&gt;0</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"worst"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"best"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AO13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"best"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX2:AX50">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"best"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC490149-B592-46F3-A5BA-C5C9D23A42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB12BA-2ED8-442D-9F03-1E5158799D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="0" windowWidth="19620" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП3" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="35">
   <si>
     <t>NetName = D:\git\AI-methods-and-systems\rez_dir\NN_L5_Best.hdf5</t>
   </si>
@@ -141,6 +141,9 @@
   <si>
     <t>strides</t>
   </si>
+  <si>
+    <t>kernel_strides</t>
+  </si>
 </sst>
 </file>
 
@@ -149,10 +152,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,6 +299,9 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -5634,6 +5647,824 @@
         <c:crossAx val="142498016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>КП5!$AQ$2:$AQ$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5_3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5_4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5_5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7_1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7_2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7_3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7_4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7_5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7_6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7_7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9_1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9_2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9_3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9_4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9_5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9_6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9_7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9_8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9_9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11_1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11_2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11_3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11_4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11_5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11_6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11_7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11_8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11_9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11_10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AT$2:$AT$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.90110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91759999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95150000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C803-4598-9A8E-C7EB6E6262A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AU$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>КП5!$AQ$2:$AQ$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5_3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5_4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5_5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7_1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7_2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7_3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7_4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7_5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7_6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7_7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9_1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9_2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9_3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9_4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9_5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9_6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9_7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9_8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9_9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11_1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11_2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11_3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11_4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11_5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11_6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11_7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11_8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11_9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11_10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AU$2:$AU$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99329999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C803-4598-9A8E-C7EB6E6262A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>КП5!$AV$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>valid_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>КП5!$AQ$2:$AQ$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5_3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5_4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5_5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7_1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7_2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7_3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7_4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7_5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7_6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7_7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9_1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9_2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9_3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9_4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9_5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9_6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9_7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9_8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9_9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11_1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11_2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11_3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11_4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11_5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11_6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11_7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11_8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11_9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11_10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>КП5!$AV$2:$AV$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.89490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95430000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93289999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95720000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C803-4598-9A8E-C7EB6E6262A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1161755472"/>
+        <c:axId val="1161748272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1161755472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161748272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1161748272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.01"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161755472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5958,6 +6789,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8539,6 +9410,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9391,6 +10778,42 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Діаграма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27841D4-0D2F-466D-AD81-53F8AC0B306D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12255,8 +13678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F35E-88F3-4455-8CFA-3699849210C8}">
   <dimension ref="A1:AX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12337,6 +13760,9 @@
       </c>
       <c r="AO1" s="4"/>
       <c r="AP1" s="5"/>
+      <c r="AQ1" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="AR1" t="s">
         <v>32</v>
       </c>
@@ -12417,6 +13843,10 @@
         <v/>
       </c>
       <c r="AP2" s="7"/>
+      <c r="AQ2" s="23" t="str">
+        <f>AR2&amp;"_"&amp;AS2</f>
+        <v>1_1</v>
+      </c>
       <c r="AR2">
         <v>1</v>
       </c>
@@ -12438,7 +13868,7 @@
       </c>
       <c r="AX2" t="str">
         <f>IF(AW2=$AW$38,"best","")</f>
-        <v>best</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
@@ -12502,13 +13932,29 @@
         <v/>
       </c>
       <c r="AP3" s="7"/>
+      <c r="AQ3" s="23" t="str">
+        <f t="shared" ref="AQ3:AQ37" si="4">AR3&amp;"_"&amp;AS3</f>
+        <v>3_1</v>
+      </c>
       <c r="AR3">
         <v>3</v>
       </c>
       <c r="AS3">
         <v>1</v>
       </c>
-      <c r="AT3" s="1"/>
+      <c r="AT3" s="1">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="AW3" s="1">
+        <f t="shared" ref="AW3:AW12" si="5">AVERAGE(AT3:AV3)</f>
+        <v>0.78486666666666671</v>
+      </c>
       <c r="AX3" t="str">
         <f>IF(AW3=$AW$38,"best","")</f>
         <v/>
@@ -12575,13 +14021,29 @@
         <v/>
       </c>
       <c r="AP4" s="7"/>
+      <c r="AQ4" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>3_2</v>
+      </c>
       <c r="AR4">
         <v>3</v>
       </c>
       <c r="AS4">
         <v>2</v>
       </c>
-      <c r="AT4" s="1"/>
+      <c r="AT4" s="1">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="AW4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94846666666666657</v>
+      </c>
       <c r="AX4" t="str">
         <f>IF(AW4=$AW$38,"best","")</f>
         <v/>
@@ -12648,13 +14110,29 @@
         <v/>
       </c>
       <c r="AP5" s="7"/>
+      <c r="AQ5" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>3_3</v>
+      </c>
       <c r="AR5">
         <v>3</v>
       </c>
       <c r="AS5">
         <v>3</v>
       </c>
-      <c r="AT5" s="1"/>
+      <c r="AT5" s="1">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="AW5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94450000000000001</v>
+      </c>
       <c r="AX5" t="str">
         <f>IF(AW5=$AW$38,"best","")</f>
         <v/>
@@ -12721,13 +14199,29 @@
         <v/>
       </c>
       <c r="AP6" s="7"/>
+      <c r="AQ6" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>5_1</v>
+      </c>
       <c r="AR6">
         <v>5</v>
       </c>
       <c r="AS6">
         <v>1</v>
       </c>
-      <c r="AT6" s="1"/>
+      <c r="AT6" s="1">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="AW6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95793333333333341</v>
+      </c>
       <c r="AX6" t="str">
         <f>IF(AW6=$AW$38,"best","")</f>
         <v/>
@@ -12794,13 +14288,29 @@
         <v>best</v>
       </c>
       <c r="AP7" s="7"/>
+      <c r="AQ7" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>5_2</v>
+      </c>
       <c r="AR7">
         <v>5</v>
       </c>
       <c r="AS7">
         <v>2</v>
       </c>
-      <c r="AT7" s="1"/>
+      <c r="AT7" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="AW7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96493333333333331</v>
+      </c>
       <c r="AX7" t="str">
         <f>IF(AW7=$AW$38,"best","")</f>
         <v/>
@@ -12867,13 +14377,29 @@
         <v/>
       </c>
       <c r="AP8" s="7"/>
+      <c r="AQ8" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>5_3</v>
+      </c>
       <c r="AR8">
         <v>5</v>
       </c>
       <c r="AS8">
         <v>3</v>
       </c>
-      <c r="AT8" s="1"/>
+      <c r="AT8" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="AW8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96179999999999988</v>
+      </c>
       <c r="AX8" t="str">
         <f>IF(AW8=$AW$38,"best","")</f>
         <v/>
@@ -12940,13 +14466,29 @@
         <v/>
       </c>
       <c r="AP9" s="7"/>
+      <c r="AQ9" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>5_4</v>
+      </c>
       <c r="AR9">
         <v>5</v>
       </c>
       <c r="AS9">
         <v>4</v>
       </c>
-      <c r="AT9" s="1"/>
+      <c r="AT9" s="1">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="AW9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95456666666666667</v>
+      </c>
       <c r="AX9" t="str">
         <f>IF(AW9=$AW$38,"best","")</f>
         <v/>
@@ -13013,13 +14555,29 @@
         <v/>
       </c>
       <c r="AP10" s="7"/>
+      <c r="AQ10" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>5_5</v>
+      </c>
       <c r="AR10">
         <v>5</v>
       </c>
       <c r="AS10">
         <v>5</v>
       </c>
-      <c r="AT10" s="1"/>
+      <c r="AT10" s="1">
+        <v>0.9214</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="AW10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94506666666666661</v>
+      </c>
       <c r="AX10" t="str">
         <f>IF(AW10=$AW$38,"best","")</f>
         <v/>
@@ -13086,11 +14644,28 @@
         <v/>
       </c>
       <c r="AP11" s="7"/>
+      <c r="AQ11" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_1</v>
+      </c>
       <c r="AR11">
         <v>7</v>
       </c>
       <c r="AS11">
         <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0.9234</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="AW11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95516666666666661</v>
       </c>
       <c r="AX11" t="str">
         <f>IF(AW11=$AW$38,"best","")</f>
@@ -13158,15 +14733,32 @@
         <v/>
       </c>
       <c r="AP12" s="7"/>
+      <c r="AQ12" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_2</v>
+      </c>
       <c r="AR12">
         <v>7</v>
       </c>
       <c r="AS12">
         <v>2</v>
       </c>
+      <c r="AT12" s="1">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0.9919</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="AW12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96686666666666665</v>
+      </c>
       <c r="AX12" t="str">
         <f>IF(AW12=$AW$38,"best","")</f>
-        <v/>
+        <v>best</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
@@ -13230,6 +14822,10 @@
         <v/>
       </c>
       <c r="AP13" s="7"/>
+      <c r="AQ13" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_3</v>
+      </c>
       <c r="AR13">
         <v>7</v>
       </c>
@@ -13275,6 +14871,10 @@
       </c>
       <c r="AO14" s="17"/>
       <c r="AP14" s="7"/>
+      <c r="AQ14" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_4</v>
+      </c>
       <c r="AR14">
         <v>7</v>
       </c>
@@ -13317,6 +14917,10 @@
       <c r="AN15" s="17"/>
       <c r="AO15" s="17"/>
       <c r="AP15" s="7"/>
+      <c r="AQ15" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_5</v>
+      </c>
       <c r="AR15">
         <v>7</v>
       </c>
@@ -13360,6 +14964,10 @@
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
       <c r="AP16" s="7"/>
+      <c r="AQ16" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_6</v>
+      </c>
       <c r="AR16">
         <v>7</v>
       </c>
@@ -13390,7 +14998,7 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="6"/>
       <c r="AE17" s="1">
-        <f t="shared" ref="AE17:AE26" si="4">IF(AF3&lt;&gt;$AF$15,AF3,"")</f>
+        <f t="shared" ref="AE17:AE26" si="6">IF(AF3&lt;&gt;$AF$15,AF3,"")</f>
         <v>0.96083333333333343</v>
       </c>
       <c r="AF17" s="1"/>
@@ -13403,6 +15011,10 @@
       <c r="AN17" s="17"/>
       <c r="AO17" s="17"/>
       <c r="AP17" s="7"/>
+      <c r="AQ17" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>7_7</v>
+      </c>
       <c r="AR17">
         <v>7</v>
       </c>
@@ -13433,7 +15045,7 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="6"/>
       <c r="AE18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96343333333333325</v>
       </c>
       <c r="AF18" s="1"/>
@@ -13446,6 +15058,10 @@
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="7"/>
+      <c r="AQ18" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_1</v>
+      </c>
       <c r="AR18">
         <v>9</v>
       </c>
@@ -13476,7 +15092,7 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="6"/>
       <c r="AE19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.9630333333333333</v>
       </c>
       <c r="AF19" s="1"/>
@@ -13489,6 +15105,10 @@
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
       <c r="AP19" s="7"/>
+      <c r="AQ19" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_2</v>
+      </c>
       <c r="AR19">
         <v>9</v>
       </c>
@@ -13519,7 +15139,7 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="6"/>
       <c r="AE20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.9615999999999999</v>
       </c>
       <c r="AF20" s="1"/>
@@ -13532,6 +15152,10 @@
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
       <c r="AP20" s="7"/>
+      <c r="AQ20" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_3</v>
+      </c>
       <c r="AR20">
         <v>9</v>
       </c>
@@ -13562,7 +15186,7 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="6"/>
       <c r="AE21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96310000000000018</v>
       </c>
       <c r="AF21" s="1"/>
@@ -13575,6 +15199,10 @@
       <c r="AN21" s="17"/>
       <c r="AO21" s="17"/>
       <c r="AP21" s="7"/>
+      <c r="AQ21" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_4</v>
+      </c>
       <c r="AR21">
         <v>9</v>
       </c>
@@ -13605,7 +15233,7 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="6"/>
       <c r="AE22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96256666666666657</v>
       </c>
       <c r="AF22" s="1"/>
@@ -13618,6 +15246,10 @@
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="7"/>
+      <c r="AQ22" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_5</v>
+      </c>
       <c r="AR22">
         <v>9</v>
       </c>
@@ -13648,7 +15280,7 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="6"/>
       <c r="AE23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96083333333333343</v>
       </c>
       <c r="AF23" s="1"/>
@@ -13661,6 +15293,10 @@
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
       <c r="AP23" s="7"/>
+      <c r="AQ23" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_6</v>
+      </c>
       <c r="AR23">
         <v>9</v>
       </c>
@@ -13691,7 +15327,7 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="6"/>
       <c r="AE24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96266666666666667</v>
       </c>
       <c r="AF24" s="1"/>
@@ -13704,6 +15340,10 @@
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
       <c r="AP24" s="7"/>
+      <c r="AQ24" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_7</v>
+      </c>
       <c r="AR24">
         <v>9</v>
       </c>
@@ -13734,7 +15374,7 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="6"/>
       <c r="AE25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96083333333333343</v>
       </c>
       <c r="AF25" s="1"/>
@@ -13747,6 +15387,10 @@
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
       <c r="AP25" s="7"/>
+      <c r="AQ25" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_8</v>
+      </c>
       <c r="AR25">
         <v>9</v>
       </c>
@@ -13777,7 +15421,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="6"/>
       <c r="AE26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.95773333333333344</v>
       </c>
       <c r="AF26" s="1"/>
@@ -13790,6 +15434,10 @@
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
       <c r="AP26" s="7"/>
+      <c r="AQ26" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>9_9</v>
+      </c>
       <c r="AR26">
         <v>9</v>
       </c>
@@ -13839,6 +15487,10 @@
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
       <c r="AP27" s="7"/>
+      <c r="AQ27" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_1</v>
+      </c>
       <c r="AR27">
         <v>11</v>
       </c>
@@ -13890,6 +15542,10 @@
       <c r="AN28" s="12"/>
       <c r="AO28" s="12"/>
       <c r="AP28" s="13"/>
+      <c r="AQ28" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_2</v>
+      </c>
       <c r="AR28">
         <v>11</v>
       </c>
@@ -13922,6 +15578,10 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="Z29" s="7"/>
+      <c r="AQ29" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_3</v>
+      </c>
       <c r="AR29">
         <v>11</v>
       </c>
@@ -13950,6 +15610,10 @@
         <v>0.30760920047759999</v>
       </c>
       <c r="Z30" s="7"/>
+      <c r="AQ30" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_4</v>
+      </c>
       <c r="AR30">
         <v>11</v>
       </c>
@@ -13978,6 +15642,10 @@
         <v>0.30683675408363298</v>
       </c>
       <c r="Z31" s="7"/>
+      <c r="AQ31" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_5</v>
+      </c>
       <c r="AR31">
         <v>11</v>
       </c>
@@ -14006,6 +15674,10 @@
         <v>0.31265854835510198</v>
       </c>
       <c r="Z32" s="7"/>
+      <c r="AQ32" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_6</v>
+      </c>
       <c r="AR32">
         <v>11</v>
       </c>
@@ -14034,6 +15706,10 @@
         <v>0.31090843677520702</v>
       </c>
       <c r="Z33" s="7"/>
+      <c r="AQ33" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_7</v>
+      </c>
       <c r="AR33">
         <v>11</v>
       </c>
@@ -14062,6 +15738,10 @@
         <v>0.315676540136337</v>
       </c>
       <c r="Z34" s="7"/>
+      <c r="AQ34" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_8</v>
+      </c>
       <c r="AR34">
         <v>11</v>
       </c>
@@ -14090,6 +15770,10 @@
         <v>0.31069803237915</v>
       </c>
       <c r="Z35" s="7"/>
+      <c r="AQ35" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_9</v>
+      </c>
       <c r="AR35">
         <v>11</v>
       </c>
@@ -14118,6 +15802,10 @@
         <v>0.31799921393394398</v>
       </c>
       <c r="Z36" s="7"/>
+      <c r="AQ36" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_10</v>
+      </c>
       <c r="AR36">
         <v>11</v>
       </c>
@@ -14146,6 +15834,10 @@
         <v>0.31426569819450301</v>
       </c>
       <c r="Z37" s="7"/>
+      <c r="AQ37" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>11_11</v>
+      </c>
       <c r="AR37">
         <v>11</v>
       </c>
@@ -14174,9 +15866,10 @@
         <v>0.33111876249313299</v>
       </c>
       <c r="Z38" s="7"/>
-      <c r="AW38" s="1">
+      <c r="AQ38" s="23"/>
+      <c r="AW38" s="24">
         <f>MAX(AW2:AW37)</f>
-        <v>0.92733333333333334</v>
+        <v>0.96686666666666665</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">

--- a/МІСШІ ІП-02 Середюк В.xlsx
+++ b/МІСШІ ІП-02 Середюк В.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AI-methods-and-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB12BA-2ED8-442D-9F03-1E5158799D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A860DCB1-6DA9-4F08-B222-B7543FEE107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП3" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,19 +296,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -5932,6 +5942,81 @@
                 <c:pt idx="10">
                   <c:v>0.95150000000000001</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95640000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93889999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92920000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6123,6 +6208,81 @@
                 <c:pt idx="10">
                   <c:v>0.9919</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52769999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80610000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99980000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6313,6 +6473,81 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.95720000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94942000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93774000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96009999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95530000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94359999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10814,6 +11049,61 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>49305</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>49305</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>184336</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Пряма сполучна лінія 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59AA885-8111-4651-BA80-ACD9D2539485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="36356364" y="145676"/>
+          <a:ext cx="0" cy="6145866"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13676,10 +13966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F35E-88F3-4455-8CFA-3699849210C8}">
-  <dimension ref="A1:AX101"/>
+  <dimension ref="A1:BQ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW27" sqref="AW27"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF48" sqref="BF48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13687,7 +13977,7 @@
     <col min="28" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -13759,14 +14049,14 @@
         <v>30</v>
       </c>
       <c r="AO1" s="4"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AT1" s="4" t="s">
@@ -13781,8 +14071,28 @@
       <c r="AW1" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="5"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -13822,56 +14132,75 @@
       </c>
       <c r="AH2" s="7"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="17">
+      <c r="AJ2">
         <v>16</v>
       </c>
-      <c r="AK2" s="18">
+      <c r="AK2" s="1">
         <v>0.92730000000000001</v>
       </c>
-      <c r="AL2" s="18">
+      <c r="AL2" s="1">
         <v>0.98770000000000002</v>
       </c>
       <c r="AM2" s="1">
         <v>0.94843999999999995</v>
       </c>
-      <c r="AN2" s="18">
+      <c r="AN2" s="1">
         <f>AVERAGE(AK2:AM2)</f>
         <v>0.95447999999999988</v>
       </c>
-      <c r="AO2" s="17" t="str">
+      <c r="AO2" t="str">
         <f>IF(AN2=$AN$14,"best","")</f>
         <v/>
       </c>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="23" t="str">
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="22" t="str">
         <f>AR2&amp;"_"&amp;AS2</f>
         <v>1_1</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="20">
         <v>1</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="20">
         <v>1</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="23">
         <v>0.90110000000000001</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="23">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="23">
         <v>0.89490000000000003</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="23">
         <f>AVERAGE(AT2:AV2)</f>
         <v>0.92733333333333334</v>
       </c>
-      <c r="AX2" t="str">
-        <f>IF(AW2=$AW$38,"best","")</f>
+      <c r="AX2" s="20" t="str">
+        <f t="shared" ref="AX2:AX37" si="0">IF(AW2=$AW$38,"best","")</f>
         <v/>
       </c>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -13902,65 +14231,84 @@
         <v>0.95040000000000002</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" ref="AF3:AF13" si="0">AVERAGE(AC3:AE3)</f>
+        <f t="shared" ref="AF3:AF13" si="1">AVERAGE(AC3:AE3)</f>
         <v>0.96083333333333343</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG13" si="1">IF(AF3=$AF$14,"best",IF(OR(AF3=$AF$15,AF3=$AF$28),"worst",""))</f>
+        <f t="shared" ref="AG3:AG13" si="2">IF(AF3=$AF$14,"best",IF(OR(AF3=$AF$15,AF3=$AF$28),"worst",""))</f>
         <v/>
       </c>
       <c r="AH3" s="7"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="17">
+      <c r="AJ3">
         <v>32</v>
       </c>
-      <c r="AK3" s="18">
+      <c r="AK3" s="1">
         <v>0.9214</v>
       </c>
-      <c r="AL3" s="18">
+      <c r="AL3" s="1">
         <v>0.99929999999999997</v>
       </c>
-      <c r="AM3" s="18">
+      <c r="AM3" s="1">
         <v>0.94550000000000001</v>
       </c>
-      <c r="AN3" s="18">
-        <f t="shared" ref="AN3:AN13" si="2">AVERAGE(AK3:AM3)</f>
+      <c r="AN3" s="1">
+        <f t="shared" ref="AN3:AN13" si="3">AVERAGE(AK3:AM3)</f>
         <v>0.95540000000000003</v>
       </c>
-      <c r="AO3" s="17" t="str">
-        <f t="shared" ref="AO3:AO13" si="3">IF(AN3=$AN$14,"best","")</f>
+      <c r="AO3" t="str">
+        <f t="shared" ref="AO3:AO13" si="4">IF(AN3=$AN$14,"best","")</f>
         <v/>
       </c>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="23" t="str">
-        <f t="shared" ref="AQ3:AQ37" si="4">AR3&amp;"_"&amp;AS3</f>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="22" t="str">
+        <f t="shared" ref="AQ3:AQ37" si="5">AR3&amp;"_"&amp;AS3</f>
         <v>3_1</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="20">
         <v>3</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="20">
         <v>1</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="23">
         <v>0.75560000000000005</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="23">
         <v>0.84509999999999996</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="23">
         <v>0.75390000000000001</v>
       </c>
-      <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW12" si="5">AVERAGE(AT3:AV3)</f>
+      <c r="AW3" s="23">
+        <f t="shared" ref="AW3:AW37" si="6">AVERAGE(AT3:AV3)</f>
         <v>0.78486666666666671</v>
       </c>
-      <c r="AX3" t="str">
-        <f>IF(AW3=$AW$38,"best","")</f>
+      <c r="AX3" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -13978,78 +14326,97 @@
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="15">
+      <c r="AB4" s="14">
         <v>48</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="16">
         <v>0.93989999999999996</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="16">
         <v>1</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="16">
         <v>0.95040000000000002</v>
       </c>
-      <c r="AF4" s="19">
-        <f t="shared" si="0"/>
+      <c r="AF4" s="16">
+        <f t="shared" si="1"/>
         <v>0.96343333333333325</v>
       </c>
       <c r="AG4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>best</v>
       </c>
       <c r="AH4" s="7"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="17">
+      <c r="AJ4">
         <v>48</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AK4" s="1">
         <v>0.93310000000000004</v>
       </c>
-      <c r="AL4" s="18">
+      <c r="AL4" s="1">
         <v>1</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="1">
         <v>0.95140000000000002</v>
       </c>
-      <c r="AN4" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN4" s="1">
+        <f t="shared" si="3"/>
         <v>0.96150000000000002</v>
       </c>
-      <c r="AO4" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO4" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>3_2</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="20">
         <v>3</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="20">
         <v>2</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="23">
         <v>0.91759999999999997</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="23">
         <v>0.99880000000000002</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="23">
         <v>0.92900000000000005</v>
       </c>
-      <c r="AW4" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW4" s="23">
+        <f t="shared" si="6"/>
         <v>0.94846666666666657</v>
       </c>
-      <c r="AX4" t="str">
-        <f>IF(AW4=$AW$38,"best","")</f>
+      <c r="AX4" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -14080,65 +14447,84 @@
         <v>0.95430000000000004</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9630333333333333</v>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH5" s="7"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="17">
+      <c r="AJ5">
         <v>64</v>
       </c>
-      <c r="AK5" s="18">
+      <c r="AK5" s="1">
         <v>0.93789999999999996</v>
       </c>
-      <c r="AL5" s="18">
+      <c r="AL5" s="1">
         <v>1</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="1">
         <v>0.94840000000000002</v>
       </c>
-      <c r="AN5" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN5" s="1">
+        <f t="shared" si="3"/>
         <v>0.96209999999999996</v>
       </c>
-      <c r="AO5" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO5" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>3_3</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="20">
         <v>3</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="20">
         <v>3</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="23">
         <v>0.91369999999999996</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="23">
         <v>0.99860000000000004</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="23">
         <v>0.92120000000000002</v>
       </c>
-      <c r="AW5" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW5" s="23">
+        <f t="shared" si="6"/>
         <v>0.94450000000000001</v>
       </c>
-      <c r="AX5" t="str">
-        <f>IF(AW5=$AW$38,"best","")</f>
+      <c r="AX5" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -14169,65 +14555,84 @@
         <v>0.94650000000000001</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9615999999999999</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH6" s="7"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="17">
+      <c r="AJ6">
         <v>80</v>
       </c>
-      <c r="AK6" s="18">
+      <c r="AK6" s="1">
         <v>0.93789999999999996</v>
       </c>
-      <c r="AL6" s="18">
+      <c r="AL6" s="1">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AM6" s="18">
+      <c r="AM6" s="1">
         <v>0.94940000000000002</v>
       </c>
-      <c r="AN6" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN6" s="1">
+        <f t="shared" si="3"/>
         <v>0.96233333333333337</v>
       </c>
-      <c r="AO6" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO6" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>5_1</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="20">
         <v>5</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="20">
         <v>1</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="23">
         <v>0.93789999999999996</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="23">
         <v>0.99329999999999996</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="23">
         <v>0.94259999999999999</v>
       </c>
-      <c r="AW6" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW6" s="23">
+        <f t="shared" si="6"/>
         <v>0.95793333333333341</v>
       </c>
-      <c r="AX6" t="str">
-        <f>IF(AW6=$AW$38,"best","")</f>
+      <c r="AX6" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -14258,65 +14663,84 @@
         <v>0.95530000000000004</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96310000000000018</v>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH7" s="7"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="20">
+      <c r="AJ7" s="14">
         <v>96</v>
       </c>
-      <c r="AK7" s="21">
+      <c r="AK7" s="16">
         <v>0.94369999999999998</v>
       </c>
-      <c r="AL7" s="21">
+      <c r="AL7" s="16">
         <v>0.99980000000000002</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AM7" s="16">
         <v>0.95530000000000004</v>
       </c>
-      <c r="AN7" s="21">
-        <f t="shared" si="2"/>
+      <c r="AN7" s="16">
+        <f t="shared" si="3"/>
         <v>0.96626666666666672</v>
       </c>
-      <c r="AO7" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO7" t="str">
+        <f t="shared" si="4"/>
         <v>best</v>
       </c>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>5_2</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="20">
         <v>5</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="20">
         <v>2</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="23">
         <v>0.94079999999999997</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="23">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="23">
         <v>0.95430000000000004</v>
       </c>
-      <c r="AW7" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW7" s="23">
+        <f t="shared" si="6"/>
         <v>0.96493333333333331</v>
       </c>
-      <c r="AX7" t="str">
-        <f>IF(AW7=$AW$38,"best","")</f>
+      <c r="AX7" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -14347,65 +14771,84 @@
         <v>0.94940000000000002</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96256666666666657</v>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH8" s="7"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="17">
+      <c r="AJ8">
         <v>112</v>
       </c>
-      <c r="AK8" s="18">
+      <c r="AK8" s="1">
         <v>0.94369999999999998</v>
       </c>
-      <c r="AL8" s="18">
+      <c r="AL8" s="1">
         <v>0.99580000000000002</v>
       </c>
-      <c r="AM8" s="18">
+      <c r="AM8" s="1">
         <v>0.95140000000000002</v>
       </c>
-      <c r="AN8" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN8" s="1">
+        <f t="shared" si="3"/>
         <v>0.96363333333333345</v>
       </c>
-      <c r="AO8" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO8" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>5_3</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="20">
         <v>5</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="20">
         <v>3</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="23">
         <v>0.93989999999999996</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8" s="23">
         <v>1</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AV8" s="23">
         <v>0.94550000000000001</v>
       </c>
-      <c r="AW8" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW8" s="23">
+        <f t="shared" si="6"/>
         <v>0.96179999999999988</v>
       </c>
-      <c r="AX8" t="str">
-        <f>IF(AW8=$AW$38,"best","")</f>
+      <c r="AX8" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="20"/>
+      <c r="BM8" s="20"/>
+      <c r="BN8" s="20"/>
+      <c r="BO8" s="20"/>
+      <c r="BP8" s="20"/>
+      <c r="BQ8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -14436,65 +14879,84 @@
         <v>0.95140000000000002</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96083333333333343</v>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH9" s="7"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="17">
+      <c r="AJ9">
         <v>128</v>
       </c>
-      <c r="AK9" s="18">
+      <c r="AK9" s="1">
         <v>0.94369999999999998</v>
       </c>
-      <c r="AL9" s="18">
+      <c r="AL9" s="1">
         <v>1</v>
       </c>
-      <c r="AM9" s="18">
+      <c r="AM9" s="1">
         <v>0.95330000000000004</v>
       </c>
-      <c r="AN9" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN9" s="1">
+        <f t="shared" si="3"/>
         <v>0.96566666666666678</v>
       </c>
-      <c r="AO9" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO9" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>5_4</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="20">
         <v>5</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="20">
         <v>4</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="23">
         <v>0.93310000000000004</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9" s="23">
         <v>0.99770000000000003</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9" s="23">
         <v>0.93289999999999995</v>
       </c>
-      <c r="AW9" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW9" s="23">
+        <f t="shared" si="6"/>
         <v>0.95456666666666667</v>
       </c>
-      <c r="AX9" t="str">
-        <f>IF(AW9=$AW$38,"best","")</f>
+      <c r="AX9" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20"/>
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -14525,65 +14987,84 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96266666666666667</v>
       </c>
       <c r="AG10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH10" s="7"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="17">
+      <c r="AJ10">
         <v>160</v>
       </c>
-      <c r="AK10" s="18">
+      <c r="AK10" s="1">
         <v>0.93789999999999996</v>
       </c>
-      <c r="AL10" s="18">
+      <c r="AL10" s="1">
         <v>0.99880000000000002</v>
       </c>
-      <c r="AM10" s="18">
+      <c r="AM10" s="1">
         <v>0.94940000000000002</v>
       </c>
-      <c r="AN10" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN10" s="1">
+        <f t="shared" si="3"/>
         <v>0.9620333333333333</v>
       </c>
-      <c r="AO10" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO10" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>5_5</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="20">
         <v>5</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="20">
         <v>5</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10" s="23">
         <v>0.9214</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AU10" s="23">
         <v>0.98770000000000002</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AV10" s="23">
         <v>0.92610000000000003</v>
       </c>
-      <c r="AW10" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW10" s="23">
+        <f t="shared" si="6"/>
         <v>0.94506666666666661</v>
       </c>
-      <c r="AX10" t="str">
-        <f>IF(AW10=$AW$38,"best","")</f>
+      <c r="AX10" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -14614,65 +15095,84 @@
         <v>0.94940000000000002</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96083333333333343</v>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AH11" s="7"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="17">
+      <c r="AJ11">
         <v>192</v>
       </c>
-      <c r="AK11" s="18">
+      <c r="AK11" s="1">
         <v>0.94279999999999997</v>
       </c>
-      <c r="AL11" s="18">
+      <c r="AL11" s="1">
         <v>0.99739999999999995</v>
       </c>
-      <c r="AM11" s="18">
+      <c r="AM11" s="1">
         <v>0.9446</v>
       </c>
-      <c r="AN11" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN11" s="1">
+        <f t="shared" si="3"/>
         <v>0.9615999999999999</v>
       </c>
-      <c r="AO11" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO11" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_1</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="20">
         <v>7</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="20">
         <v>1</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AT11" s="23">
         <v>0.9234</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AU11" s="23">
         <v>0.99370000000000003</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AV11" s="23">
         <v>0.94840000000000002</v>
       </c>
-      <c r="AW11" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW11" s="23">
+        <f t="shared" si="6"/>
         <v>0.95516666666666661</v>
       </c>
-      <c r="AX11" t="str">
-        <f>IF(AW11=$AW$38,"best","")</f>
+      <c r="AX11" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -14703,65 +15203,84 @@
         <v>0.94650000000000001</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95773333333333344</v>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>worst</v>
       </c>
       <c r="AH12" s="7"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="17">
+      <c r="AJ12">
         <v>224</v>
       </c>
-      <c r="AK12" s="18">
+      <c r="AK12" s="1">
         <v>0.93789999999999996</v>
       </c>
-      <c r="AL12" s="18">
+      <c r="AL12" s="1">
         <v>1</v>
       </c>
-      <c r="AM12" s="18">
+      <c r="AM12" s="1">
         <v>0.94750000000000001</v>
       </c>
-      <c r="AN12" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN12" s="1">
+        <f t="shared" si="3"/>
         <v>0.96179999999999988</v>
       </c>
-      <c r="AO12" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO12" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_2</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="20">
         <v>7</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="20">
         <v>2</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AT12" s="23">
         <v>0.95150000000000001</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU12" s="23">
         <v>0.9919</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AV12" s="23">
         <v>0.95720000000000005</v>
       </c>
-      <c r="AW12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AW12" s="23">
+        <f t="shared" si="6"/>
         <v>0.96686666666666665</v>
       </c>
-      <c r="AX12" t="str">
-        <f>IF(AW12=$AW$38,"best","")</f>
-        <v>best</v>
-      </c>
+      <c r="AX12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -14792,52 +15311,84 @@
         <v>0.93189999999999995</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9482666666666667</v>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>worst</v>
       </c>
       <c r="AH13" s="7"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="17">
+      <c r="AJ13">
         <v>256</v>
       </c>
-      <c r="AK13" s="18">
+      <c r="AK13" s="1">
         <v>0.91759999999999997</v>
       </c>
-      <c r="AL13" s="18">
+      <c r="AL13" s="1">
         <v>1</v>
       </c>
-      <c r="AM13" s="18">
+      <c r="AM13" s="1">
         <v>0.94159999999999999</v>
       </c>
-      <c r="AN13" s="18">
-        <f t="shared" si="2"/>
+      <c r="AN13" s="1">
+        <f t="shared" si="3"/>
         <v>0.95306666666666662</v>
       </c>
-      <c r="AO13" s="17" t="str">
-        <f t="shared" si="3"/>
+      <c r="AO13" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_3</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="20">
         <v>7</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="20">
         <v>3</v>
       </c>
-      <c r="AX13" t="str">
-        <f>IF(AW13=$AW$38,"best","")</f>
+      <c r="AT13" s="23">
+        <v>0.9496</v>
+      </c>
+      <c r="AU13" s="23">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AV13" s="23">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AW13" s="23">
+        <f t="shared" si="6"/>
+        <v>0.9675666666666668</v>
+      </c>
+      <c r="AX13" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -14861,32 +15412,59 @@
       </c>
       <c r="AH14" s="7"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="18">
+      <c r="AN14" s="1">
         <f>MAX(AN2:AN13)</f>
         <v>0.96626666666666672</v>
       </c>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_4</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" s="20">
         <v>7</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" s="20">
         <v>4</v>
       </c>
-      <c r="AX14" t="str">
-        <f>IF(AW14=$AW$38,"best","")</f>
+      <c r="AT14" s="23">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="AU14" s="23">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="AV14" s="23">
+        <v>0.94942000000000004</v>
+      </c>
+      <c r="AW14" s="23">
+        <f t="shared" si="6"/>
+        <v>0.96153999999999995</v>
+      </c>
+      <c r="AX14" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="7"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -14910,29 +15488,55 @@
       </c>
       <c r="AH15" s="7"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_5</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="20">
         <v>7</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="20">
         <v>5</v>
       </c>
-      <c r="AX15" t="str">
-        <f>IF(AW15=$AW$38,"best","")</f>
+      <c r="AT15" s="23">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AU15" s="23">
+        <v>0.997</v>
+      </c>
+      <c r="AV15" s="23">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="AW15" s="23">
+        <f t="shared" si="6"/>
+        <v>0.96113333333333328</v>
+      </c>
+      <c r="AX15" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="7"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -14957,29 +15561,55 @@
       <c r="AF16" s="1"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_6</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="20">
         <v>7</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" s="20">
         <v>6</v>
       </c>
-      <c r="AX16" t="str">
-        <f>IF(AW16=$AW$38,"best","")</f>
+      <c r="AT16" s="23">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="AU16" s="23">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AV16" s="23">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="AW16" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95746666666666658</v>
+      </c>
+      <c r="AX16" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="7"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -14998,35 +15628,61 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="6"/>
       <c r="AE17" s="1">
-        <f t="shared" ref="AE17:AE26" si="6">IF(AF3&lt;&gt;$AF$15,AF3,"")</f>
+        <f t="shared" ref="AE17:AE26" si="7">IF(AF3&lt;&gt;$AF$15,AF3,"")</f>
         <v>0.96083333333333343</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>7_7</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" s="20">
         <v>7</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" s="20">
         <v>7</v>
       </c>
-      <c r="AX17" t="str">
-        <f>IF(AW17=$AW$38,"best","")</f>
+      <c r="AT17" s="23">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="AU17" s="23">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AV17" s="23">
+        <v>0.93774000000000002</v>
+      </c>
+      <c r="AW17" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95194666666666661</v>
+      </c>
+      <c r="AX17" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="7"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -15045,35 +15701,61 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="6"/>
       <c r="AE18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96343333333333325</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_1</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" s="20">
         <v>9</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" s="20">
         <v>1</v>
       </c>
-      <c r="AX18" t="str">
-        <f>IF(AW18=$AW$38,"best","")</f>
+      <c r="AT18" s="23">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="AU18" s="23">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="AV18" s="23">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="AW18" s="23">
+        <f t="shared" si="6"/>
+        <v>0.39799999999999996</v>
+      </c>
+      <c r="AX18" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="20"/>
+      <c r="BM18" s="20"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="20"/>
+      <c r="BQ18" s="7"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -15092,35 +15774,61 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="6"/>
       <c r="AE19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9630333333333333</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_2</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" s="20">
         <v>9</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" s="20">
         <v>2</v>
       </c>
-      <c r="AX19" t="str">
-        <f>IF(AW19=$AW$38,"best","")</f>
+      <c r="AT19" s="23">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="AU19" s="23">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AV19" s="23">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="AW19" s="23">
+        <f t="shared" si="6"/>
+        <v>0.97023333333333339</v>
+      </c>
+      <c r="AX19" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="7"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -15139,35 +15847,61 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="6"/>
       <c r="AE20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9615999999999999</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_3</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" s="20">
         <v>9</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" s="20">
         <v>3</v>
       </c>
-      <c r="AX20" t="str">
-        <f>IF(AW20=$AW$38,"best","")</f>
+      <c r="AT20" s="23">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="AU20" s="23">
+        <v>0.997</v>
+      </c>
+      <c r="AV20" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="AW20" s="23">
+        <f t="shared" si="6"/>
+        <v>0.9714666666666667</v>
+      </c>
+      <c r="AX20" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="20"/>
+      <c r="BM20" s="20"/>
+      <c r="BN20" s="20"/>
+      <c r="BO20" s="20"/>
+      <c r="BP20" s="20"/>
+      <c r="BQ20" s="7"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -15186,35 +15920,61 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="6"/>
       <c r="AE21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96310000000000018</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AH21" s="7"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_4</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="24">
         <v>9</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="24">
         <v>4</v>
       </c>
-      <c r="AX21" t="str">
-        <f>IF(AW21=$AW$38,"best","")</f>
-        <v/>
-      </c>
+      <c r="AT21" s="25">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AW21" s="25">
+        <f t="shared" si="6"/>
+        <v>0.97306666666666664</v>
+      </c>
+      <c r="AX21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>best</v>
+      </c>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="7"/>
     </row>
-    <row r="22" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -15233,35 +15993,61 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="6"/>
       <c r="AE22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96256666666666657</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_5</v>
       </c>
-      <c r="AR22">
+      <c r="AR22" s="20">
         <v>9</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" s="20">
         <v>5</v>
       </c>
-      <c r="AX22" t="str">
-        <f>IF(AW22=$AW$38,"best","")</f>
+      <c r="AT22" s="23">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AU22" s="23">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="AV22" s="23">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="AW22" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95296666666666674</v>
+      </c>
+      <c r="AX22" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="20"/>
+      <c r="BQ22" s="7"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -15280,35 +16066,61 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="6"/>
       <c r="AE23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96083333333333343</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_6</v>
       </c>
-      <c r="AR23">
+      <c r="AR23" s="20">
         <v>9</v>
       </c>
-      <c r="AS23">
+      <c r="AS23" s="20">
         <v>6</v>
       </c>
-      <c r="AX23" t="str">
-        <f>IF(AW23=$AW$38,"best","")</f>
+      <c r="AT23" s="23">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="AU23" s="23">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="AV23" s="23">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="AW23" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95613333333333339</v>
+      </c>
+      <c r="AX23" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="7"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -15327,35 +16139,61 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="6"/>
       <c r="AE24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96266666666666667</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_7</v>
       </c>
-      <c r="AR24">
+      <c r="AR24" s="20">
         <v>9</v>
       </c>
-      <c r="AS24">
+      <c r="AS24" s="20">
         <v>7</v>
       </c>
-      <c r="AX24" t="str">
-        <f>IF(AW24=$AW$38,"best","")</f>
+      <c r="AT24" s="23">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="AU24" s="23">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="AV24" s="23">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="AW24" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="AX24" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="7"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -15374,35 +16212,61 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="6"/>
       <c r="AE25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96083333333333343</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_8</v>
       </c>
-      <c r="AR25">
+      <c r="AR25" s="20">
         <v>9</v>
       </c>
-      <c r="AS25">
+      <c r="AS25" s="20">
         <v>8</v>
       </c>
-      <c r="AX25" t="str">
-        <f>IF(AW25=$AW$38,"best","")</f>
+      <c r="AT25" s="23">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="AU25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="23">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AW25" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95823333333333327</v>
+      </c>
+      <c r="AX25" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="7"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -15421,35 +16285,61 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="6"/>
       <c r="AE26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95773333333333344</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>9_9</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="20">
         <v>9</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="20">
         <v>9</v>
       </c>
-      <c r="AX26" t="str">
-        <f>IF(AW26=$AW$38,"best","")</f>
+      <c r="AT26" s="23">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="AV26" s="23">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="AW26" s="23">
+        <f t="shared" si="6"/>
+        <v>0.94043333333333334</v>
+      </c>
+      <c r="AX26" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="7"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -15465,12 +16355,12 @@
       <c r="E27" s="9">
         <v>0.25669094920158297</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="6"/>
       <c r="AE27" s="1" t="str">
@@ -15480,29 +16370,55 @@
       <c r="AF27" s="1"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_1</v>
       </c>
-      <c r="AR27">
+      <c r="AR27" s="20">
         <v>11</v>
       </c>
-      <c r="AS27">
+      <c r="AS27" s="20">
         <v>1</v>
       </c>
-      <c r="AX27" t="str">
-        <f>IF(AW27=$AW$38,"best","")</f>
+      <c r="AT27" s="23">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="AU27" s="23">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="AV27" s="23">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="AW27" s="23">
+        <f t="shared" si="6"/>
+        <v>0.96349999999999991</v>
+      </c>
+      <c r="AX27" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="7"/>
     </row>
-    <row r="28" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -15518,17 +16434,17 @@
       <c r="E28" s="2">
         <v>0.36829364299774098</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16">
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15">
         <f>MIN(AE16:AE27)</f>
         <v>0.95773333333333344</v>
       </c>
@@ -15541,23 +16457,55 @@
       <c r="AM28" s="12"/>
       <c r="AN28" s="12"/>
       <c r="AO28" s="12"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_2</v>
       </c>
-      <c r="AR28">
+      <c r="AR28" s="20">
         <v>11</v>
       </c>
-      <c r="AS28">
+      <c r="AS28" s="20">
         <v>2</v>
       </c>
-      <c r="AX28" t="str">
-        <f>IF(AW28=$AW$38,"best","")</f>
+      <c r="AT28" s="23">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="AU28" s="23">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="AV28" s="23">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="AW28" s="23">
+        <f t="shared" si="6"/>
+        <v>0.9690333333333333</v>
+      </c>
+      <c r="AX28" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="7"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -15573,27 +16521,59 @@
       <c r="E29" s="2">
         <v>0.27205210924148499</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
       <c r="Z29" s="7"/>
-      <c r="AQ29" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ29" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_3</v>
       </c>
-      <c r="AR29">
+      <c r="AR29" s="20">
         <v>11</v>
       </c>
-      <c r="AS29">
+      <c r="AS29" s="20">
         <v>3</v>
       </c>
-      <c r="AX29" t="str">
-        <f>IF(AW29=$AW$38,"best","")</f>
+      <c r="AT29" s="23">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="AU29" s="26">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="AV29" s="23">
+        <v>0.9446</v>
+      </c>
+      <c r="AW29" s="23">
+        <f t="shared" si="6"/>
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="AX29" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="20"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="20"/>
+      <c r="BG29" s="20"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="20"/>
+      <c r="BM29" s="20"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="7"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -15610,22 +16590,54 @@
         <v>0.30760920047759999</v>
       </c>
       <c r="Z30" s="7"/>
-      <c r="AQ30" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ30" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_4</v>
       </c>
-      <c r="AR30">
+      <c r="AR30" s="20">
         <v>11</v>
       </c>
-      <c r="AS30">
+      <c r="AS30" s="20">
         <v>4</v>
       </c>
-      <c r="AX30" t="str">
-        <f>IF(AW30=$AW$38,"best","")</f>
+      <c r="AT30" s="23">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="AU30" s="23">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="AV30" s="23">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="AW30" s="23">
+        <f t="shared" si="6"/>
+        <v>0.69773333333333332</v>
+      </c>
+      <c r="AX30" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="20"/>
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="20"/>
+      <c r="BG30" s="20"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="20"/>
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="20"/>
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="7"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -15642,22 +16654,54 @@
         <v>0.30683675408363298</v>
       </c>
       <c r="Z31" s="7"/>
-      <c r="AQ31" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ31" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_5</v>
       </c>
-      <c r="AR31">
+      <c r="AR31" s="20">
         <v>11</v>
       </c>
-      <c r="AS31">
+      <c r="AS31" s="20">
         <v>5</v>
       </c>
-      <c r="AX31" t="str">
-        <f>IF(AW31=$AW$38,"best","")</f>
+      <c r="AT31" s="23">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="AU31" s="23">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AV31" s="23">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AW31" s="23">
+        <f t="shared" si="6"/>
+        <v>0.96583333333333332</v>
+      </c>
+      <c r="AX31" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY31" s="20"/>
+      <c r="AZ31" s="20"/>
+      <c r="BA31" s="20"/>
+      <c r="BB31" s="20"/>
+      <c r="BC31" s="20"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="20"/>
+      <c r="BF31" s="20"/>
+      <c r="BG31" s="20"/>
+      <c r="BH31" s="20"/>
+      <c r="BI31" s="20"/>
+      <c r="BJ31" s="20"/>
+      <c r="BK31" s="20"/>
+      <c r="BL31" s="20"/>
+      <c r="BM31" s="20"/>
+      <c r="BN31" s="20"/>
+      <c r="BO31" s="20"/>
+      <c r="BP31" s="20"/>
+      <c r="BQ31" s="7"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -15674,22 +16718,54 @@
         <v>0.31265854835510198</v>
       </c>
       <c r="Z32" s="7"/>
-      <c r="AQ32" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ32" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_6</v>
       </c>
-      <c r="AR32">
+      <c r="AR32" s="20">
         <v>11</v>
       </c>
-      <c r="AS32">
+      <c r="AS32" s="20">
         <v>6</v>
       </c>
-      <c r="AX32" t="str">
-        <f>IF(AW32=$AW$38,"best","")</f>
+      <c r="AT32" s="23">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AU32" s="23">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="AV32" s="23">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="AW32" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="AX32" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY32" s="20"/>
+      <c r="AZ32" s="20"/>
+      <c r="BA32" s="20"/>
+      <c r="BB32" s="20"/>
+      <c r="BC32" s="20"/>
+      <c r="BD32" s="20"/>
+      <c r="BE32" s="20"/>
+      <c r="BF32" s="20"/>
+      <c r="BG32" s="20"/>
+      <c r="BH32" s="20"/>
+      <c r="BI32" s="20"/>
+      <c r="BJ32" s="20"/>
+      <c r="BK32" s="20"/>
+      <c r="BL32" s="20"/>
+      <c r="BM32" s="20"/>
+      <c r="BN32" s="20"/>
+      <c r="BO32" s="20"/>
+      <c r="BP32" s="20"/>
+      <c r="BQ32" s="7"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -15706,22 +16782,54 @@
         <v>0.31090843677520702</v>
       </c>
       <c r="Z33" s="7"/>
-      <c r="AQ33" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ33" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_7</v>
       </c>
-      <c r="AR33">
+      <c r="AR33" s="20">
         <v>11</v>
       </c>
-      <c r="AS33">
+      <c r="AS33" s="20">
         <v>7</v>
       </c>
-      <c r="AX33" t="str">
-        <f>IF(AW33=$AW$38,"best","")</f>
+      <c r="AT33" s="23">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="AU33" s="23">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="AV33" s="23">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AW33" s="23">
+        <f t="shared" si="6"/>
+        <v>0.96160000000000012</v>
+      </c>
+      <c r="AX33" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY33" s="20"/>
+      <c r="AZ33" s="20"/>
+      <c r="BA33" s="20"/>
+      <c r="BB33" s="20"/>
+      <c r="BC33" s="20"/>
+      <c r="BD33" s="20"/>
+      <c r="BE33" s="20"/>
+      <c r="BF33" s="20"/>
+      <c r="BG33" s="20"/>
+      <c r="BH33" s="20"/>
+      <c r="BI33" s="20"/>
+      <c r="BJ33" s="20"/>
+      <c r="BK33" s="20"/>
+      <c r="BL33" s="20"/>
+      <c r="BM33" s="20"/>
+      <c r="BN33" s="20"/>
+      <c r="BO33" s="20"/>
+      <c r="BP33" s="20"/>
+      <c r="BQ33" s="7"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -15738,22 +16846,54 @@
         <v>0.315676540136337</v>
       </c>
       <c r="Z34" s="7"/>
-      <c r="AQ34" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ34" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_8</v>
       </c>
-      <c r="AR34">
+      <c r="AR34" s="20">
         <v>11</v>
       </c>
-      <c r="AS34">
+      <c r="AS34" s="20">
         <v>8</v>
       </c>
-      <c r="AX34" t="str">
-        <f>IF(AW34=$AW$38,"best","")</f>
+      <c r="AT34" s="23">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AU34" s="23">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AV34" s="23">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AW34" s="23">
+        <f t="shared" si="6"/>
+        <v>0.9610333333333333</v>
+      </c>
+      <c r="AX34" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY34" s="20"/>
+      <c r="AZ34" s="20"/>
+      <c r="BA34" s="20"/>
+      <c r="BB34" s="20"/>
+      <c r="BC34" s="20"/>
+      <c r="BD34" s="20"/>
+      <c r="BE34" s="20"/>
+      <c r="BF34" s="20"/>
+      <c r="BG34" s="20"/>
+      <c r="BH34" s="20"/>
+      <c r="BI34" s="20"/>
+      <c r="BJ34" s="20"/>
+      <c r="BK34" s="20"/>
+      <c r="BL34" s="20"/>
+      <c r="BM34" s="20"/>
+      <c r="BN34" s="20"/>
+      <c r="BO34" s="20"/>
+      <c r="BP34" s="20"/>
+      <c r="BQ34" s="7"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -15770,22 +16910,54 @@
         <v>0.31069803237915</v>
       </c>
       <c r="Z35" s="7"/>
-      <c r="AQ35" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ35" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_9</v>
       </c>
-      <c r="AR35">
+      <c r="AR35" s="20">
         <v>11</v>
       </c>
-      <c r="AS35">
+      <c r="AS35" s="20">
         <v>9</v>
       </c>
-      <c r="AX35" t="str">
-        <f>IF(AW35=$AW$38,"best","")</f>
+      <c r="AT35" s="23">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="AU35" s="23">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AV35" s="23">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="AW35" s="23">
+        <f t="shared" si="6"/>
+        <v>0.95276666666666665</v>
+      </c>
+      <c r="AX35" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY35" s="20"/>
+      <c r="AZ35" s="20"/>
+      <c r="BA35" s="20"/>
+      <c r="BB35" s="20"/>
+      <c r="BC35" s="20"/>
+      <c r="BD35" s="20"/>
+      <c r="BE35" s="20"/>
+      <c r="BF35" s="20"/>
+      <c r="BG35" s="20"/>
+      <c r="BH35" s="20"/>
+      <c r="BI35" s="20"/>
+      <c r="BJ35" s="20"/>
+      <c r="BK35" s="20"/>
+      <c r="BL35" s="20"/>
+      <c r="BM35" s="20"/>
+      <c r="BN35" s="20"/>
+      <c r="BO35" s="20"/>
+      <c r="BP35" s="20"/>
+      <c r="BQ35" s="7"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -15802,22 +16974,54 @@
         <v>0.31799921393394398</v>
       </c>
       <c r="Z36" s="7"/>
-      <c r="AQ36" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ36" s="22" t="str">
+        <f t="shared" si="5"/>
         <v>11_10</v>
       </c>
-      <c r="AR36">
+      <c r="AR36" s="20">
         <v>11</v>
       </c>
-      <c r="AS36">
+      <c r="AS36" s="20">
         <v>10</v>
       </c>
-      <c r="AX36" t="str">
-        <f>IF(AW36=$AW$38,"best","")</f>
+      <c r="AT36" s="23">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="AU36" s="23">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="AV36" s="23">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="AW36" s="23">
+        <f t="shared" si="6"/>
+        <v>0.94173333333333342</v>
+      </c>
+      <c r="AX36" s="20" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY36" s="20"/>
+      <c r="AZ36" s="20"/>
+      <c r="BA36" s="20"/>
+      <c r="BB36" s="20"/>
+      <c r="BC36" s="20"/>
+      <c r="BD36" s="20"/>
+      <c r="BE36" s="20"/>
+      <c r="BF36" s="20"/>
+      <c r="BG36" s="20"/>
+      <c r="BH36" s="20"/>
+      <c r="BI36" s="20"/>
+      <c r="BJ36" s="20"/>
+      <c r="BK36" s="20"/>
+      <c r="BL36" s="20"/>
+      <c r="BM36" s="20"/>
+      <c r="BN36" s="20"/>
+      <c r="BO36" s="20"/>
+      <c r="BP36" s="20"/>
+      <c r="BQ36" s="7"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -15834,22 +17038,54 @@
         <v>0.31426569819450301</v>
       </c>
       <c r="Z37" s="7"/>
-      <c r="AQ37" s="23" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ37" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>11_11</v>
       </c>
-      <c r="AR37">
+      <c r="AR37" s="12">
         <v>11</v>
       </c>
-      <c r="AS37">
+      <c r="AS37" s="12">
         <v>11</v>
       </c>
-      <c r="AX37" t="str">
-        <f>IF(AW37=$AW$38,"best","")</f>
+      <c r="AT37" s="15">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="AU37" s="15">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="AV37" s="15">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="AW37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.95753333333333346</v>
+      </c>
+      <c r="AX37" s="12" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -15866,13 +17102,14 @@
         <v>0.33111876249313299</v>
       </c>
       <c r="Z38" s="7"/>
-      <c r="AQ38" s="23"/>
-      <c r="AW38" s="24">
+      <c r="AQ38" s="17"/>
+      <c r="AU38" s="1"/>
+      <c r="AW38" s="18">
         <f>MAX(AW2:AW37)</f>
-        <v>0.96686666666666665</v>
+        <v>0.97306666666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -15890,7 +17127,7 @@
       </c>
       <c r="Z39" s="7"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -15908,7 +17145,7 @@
       </c>
       <c r="Z40" s="7"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -15926,7 +17163,7 @@
       </c>
       <c r="Z41" s="7"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -15944,7 +17181,7 @@
       </c>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -15962,7 +17199,7 @@
       </c>
       <c r="Z43" s="7"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -15980,7 +17217,7 @@
       </c>
       <c r="Z44" s="7"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -15998,7 +17235,7 @@
       </c>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -16016,7 +17253,7 @@
       </c>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -16034,7 +17271,7 @@
       </c>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
